--- a/team_1_WBS.xlsx
+++ b/team_1_WBS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="8.1.852.35783"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="23256" windowHeight="11592" tabRatio="430"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>태스크</t>
   </si>
@@ -117,8 +118,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>12월</t>
     </r>
@@ -133,95 +132,184 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0.00;\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0%"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="29">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
       <color theme="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
       <color theme="11"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <name val="Arial"/>
       <color theme="0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -231,43 +319,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.049990"/>
         <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.099980"/>
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79989013336588644"/>
+        <fgColor theme="6" tint="0.799890"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.049990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -283,8 +371,188 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -391,7 +659,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </right>
       <top/>
       <bottom/>
@@ -400,13 +668,13 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,70 +683,70 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.150000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,13 +778,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="24" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -525,80 +1051,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,62 +1136,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -687,48 +1213,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1018,44 +1583,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS828"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:XFD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.750000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="4" customWidth="1"/>
-    <col min="9" max="56" width="3" style="14" customWidth="1"/>
-    <col min="57" max="62" width="3" style="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" style="1" customWidth="1"/>
-    <col min="64" max="16384" width="17.33203125" style="1"/>
+    <col min="1" max="1" width="13.29071413" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="32.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="4" width="12.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="4" width="11.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="6" style="4" width="13.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="25" width="7.57642875" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="4" width="10.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="56" style="14" width="3.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="57" max="62" style="1" width="3.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="63" max="63" style="1" width="17.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="64" max="16384" style="1" width="17.29071508" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="2:16384" s="4" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="75" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="69" t="s">
@@ -1084,12 +1649,12 @@
       <c r="X1" s="73"/>
       <c r="Y1" s="73"/>
       <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="73" t="s">
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="76" t="s">
         <v>33</v>
       </c>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
       <c r="AE1" s="73"/>
       <c r="AF1" s="73"/>
       <c r="AG1" s="73"/>
@@ -1116,19 +1681,19 @@
       <c r="BB1" s="73"/>
       <c r="BC1" s="73"/>
       <c r="BD1" s="73"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="75"/>
-      <c r="BH1" s="75"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
       <c r="BI1" s="33"/>
       <c r="BJ1" s="34"/>
     </row>
-    <row r="2" spans="2:71" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+    <row r="2" spans="2:16384" s="4" customFormat="1" ht="15.000000" customHeight="1">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="69"/>
       <c r="H2" s="70"/>
       <c r="I2" s="31">
@@ -1162,142 +1727,139 @@
         <v>20</v>
       </c>
       <c r="S2" s="31">
+        <v>23</v>
+      </c>
+      <c r="T2" s="31">
+        <v>24</v>
+      </c>
+      <c r="U2" s="31">
+        <v>25</v>
+      </c>
+      <c r="V2" s="31">
+        <v>26</v>
+      </c>
+      <c r="W2" s="31">
+        <v>27</v>
+      </c>
+      <c r="X2" s="31">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="66">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="31">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>9</v>
+      </c>
+      <c r="AK2" s="31">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="31">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="31">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="31">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="31">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="31">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="31">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="31">
+        <v>17</v>
+      </c>
+      <c r="AS2" s="31">
+        <v>18</v>
+      </c>
+      <c r="AT2" s="31">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="31">
+        <v>20</v>
+      </c>
+      <c r="AV2" s="31">
         <v>21</v>
       </c>
-      <c r="T2" s="31">
+      <c r="AW2" s="31">
         <v>22</v>
       </c>
-      <c r="U2" s="31">
+      <c r="AX2" s="31">
         <v>23</v>
       </c>
-      <c r="V2" s="31">
+      <c r="AY2" s="31">
         <v>24</v>
       </c>
-      <c r="W2" s="31">
+      <c r="AZ2" s="31">
         <v>25</v>
       </c>
-      <c r="X2" s="31">
+      <c r="BA2" s="31">
         <v>26</v>
       </c>
-      <c r="Y2" s="31">
+      <c r="BB2" s="31">
         <v>27</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="BC2" s="31">
         <v>28</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="BD2" s="31">
         <v>29</v>
       </c>
-      <c r="AB2" s="31">
+      <c r="BE2" s="31">
         <v>30</v>
       </c>
-      <c r="AC2" s="66">
+      <c r="BF2" s="31">
         <v>31</v>
       </c>
-      <c r="AD2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="31">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AH2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AI2" s="31">
-        <v>6</v>
-      </c>
-      <c r="AJ2" s="31">
-        <v>7</v>
-      </c>
-      <c r="AK2" s="31">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="31">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="31">
-        <v>10</v>
-      </c>
-      <c r="AN2" s="31">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="31">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="31">
-        <v>13</v>
-      </c>
-      <c r="AQ2" s="31">
-        <v>14</v>
-      </c>
-      <c r="AR2" s="31">
-        <v>15</v>
-      </c>
-      <c r="AS2" s="31">
-        <v>16</v>
-      </c>
-      <c r="AT2" s="31">
-        <v>17</v>
-      </c>
-      <c r="AU2" s="31">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="31">
-        <v>19</v>
-      </c>
-      <c r="AW2" s="31">
-        <v>20</v>
-      </c>
-      <c r="AX2" s="31">
-        <v>21</v>
-      </c>
-      <c r="AY2" s="31">
-        <v>22</v>
-      </c>
-      <c r="AZ2" s="31">
-        <v>23</v>
-      </c>
-      <c r="BA2" s="31">
-        <v>24</v>
-      </c>
-      <c r="BB2" s="31">
-        <v>25</v>
-      </c>
-      <c r="BC2" s="31">
-        <v>26</v>
-      </c>
-      <c r="BD2" s="31">
-        <v>27</v>
-      </c>
-      <c r="BE2" s="31">
-        <v>28</v>
-      </c>
-      <c r="BF2" s="31">
-        <v>29</v>
-      </c>
-      <c r="BG2" s="31">
-        <v>30</v>
-      </c>
-      <c r="BH2" s="31">
-        <v>31</v>
-      </c>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="64"/>
+      <c r="BG2" s="4"/>
+      <c r="BI2" s="62"/>
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="62"/>
+      <c r="BN2" s="65"/>
       <c r="BO2" s="62"/>
-      <c r="BP2" s="65"/>
+      <c r="BP2" s="62"/>
       <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
+      <c r="XFC2" s="4"/>
+      <c r="XFD2" s="4"/>
     </row>
-    <row r="3" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
@@ -1336,10 +1898,10 @@
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
       <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="44"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
       <c r="AE3" s="28"/>
       <c r="AF3" s="28"/>
       <c r="AG3" s="28"/>
@@ -1362,19 +1924,19 @@
       <c r="AX3" s="28"/>
       <c r="AY3" s="28"/>
       <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
       <c r="BC3" s="29"/>
       <c r="BD3" s="29"/>
       <c r="BE3" s="29"/>
       <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="61"/>
+      <c r="BJ3" s="53"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="61"/>
+      <c r="XFC3" s="0"/>
+      <c r="XFD3" s="0"/>
     </row>
-    <row r="4" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1415,10 +1977,10 @@
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="44"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
       <c r="AE4" s="28"/>
       <c r="AF4" s="28"/>
       <c r="AG4" s="28"/>
@@ -1441,16 +2003,16 @@
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
       <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
       <c r="BC4" s="29"/>
       <c r="BD4" s="29"/>
       <c r="BE4" s="29"/>
       <c r="BF4" s="29"/>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
+      <c r="XFC4" s="0"/>
+      <c r="XFD4" s="0"/>
     </row>
-    <row r="5" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
@@ -1478,10 +2040,10 @@
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="45"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
       <c r="AE5" s="27"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
@@ -1504,16 +2066,16 @@
       <c r="AX5" s="27"/>
       <c r="AY5" s="27"/>
       <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
       <c r="BC5" s="32"/>
       <c r="BD5" s="32"/>
       <c r="BE5" s="32"/>
       <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
+      <c r="XFC5" s="0"/>
+      <c r="XFD5" s="0"/>
     </row>
-    <row r="6" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>34</v>
       </c>
@@ -1553,10 +2115,10 @@
       <c r="X6" s="27"/>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="45"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
       <c r="AF6" s="27"/>
       <c r="AG6" s="27"/>
@@ -1579,16 +2141,16 @@
       <c r="AX6" s="27"/>
       <c r="AY6" s="27"/>
       <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
       <c r="BC6" s="32"/>
       <c r="BD6" s="32"/>
       <c r="BE6" s="32"/>
       <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
+      <c r="XFC6" s="0"/>
+      <c r="XFD6" s="0"/>
     </row>
-    <row r="7" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1596,14 +2158,20 @@
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
         <v>43816</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="6">
+        <v>43822</v>
+      </c>
+      <c r="G7" s="22">
+        <v>5</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -1613,8 +2181,8 @@
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
@@ -1622,10 +2190,10 @@
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="45"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -1648,16 +2216,16 @@
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
       <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" s="32"/>
       <c r="BE7" s="32"/>
       <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
+      <c r="XFC7" s="0"/>
+      <c r="XFD7" s="0"/>
     </row>
-    <row r="8" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="8" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
@@ -1685,10 +2253,10 @@
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
       <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="45"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
       <c r="AE8" s="27"/>
       <c r="AF8" s="27"/>
       <c r="AG8" s="27"/>
@@ -1711,24 +2279,28 @@
       <c r="AX8" s="27"/>
       <c r="AY8" s="27"/>
       <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
       <c r="BC8" s="32"/>
       <c r="BD8" s="32"/>
       <c r="BE8" s="32"/>
       <c r="BF8" s="32"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="32"/>
+      <c r="XFC8" s="0"/>
+      <c r="XFD8" s="0"/>
     </row>
-    <row r="9" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43822</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="22"/>
       <c r="H9" s="16"/>
@@ -1742,7 +2314,7 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
@@ -1750,10 +2322,10 @@
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="45"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
@@ -1776,16 +2348,16 @@
       <c r="AX9" s="27"/>
       <c r="AY9" s="27"/>
       <c r="AZ9" s="27"/>
-      <c r="BA9" s="27"/>
-      <c r="BB9" s="27"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
       <c r="BC9" s="32"/>
       <c r="BD9" s="32"/>
       <c r="BE9" s="32"/>
       <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
+      <c r="XFC9" s="0"/>
+      <c r="XFD9" s="0"/>
     </row>
-    <row r="10" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1815,10 +2387,10 @@
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="45"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
       <c r="AE10" s="27"/>
       <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
@@ -1841,16 +2413,16 @@
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
       <c r="AZ10" s="27"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
       <c r="BC10" s="32"/>
       <c r="BD10" s="32"/>
       <c r="BE10" s="32"/>
       <c r="BF10" s="32"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="32"/>
+      <c r="XFC10" s="0"/>
+      <c r="XFD10" s="0"/>
     </row>
-    <row r="11" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="11" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1880,10 +2452,10 @@
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="45"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
@@ -1906,16 +2478,16 @@
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
       <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="32"/>
       <c r="BE11" s="32"/>
       <c r="BF11" s="32"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
+      <c r="XFC11" s="0"/>
+      <c r="XFD11" s="0"/>
     </row>
-    <row r="12" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1945,10 +2517,10 @@
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
       <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="45"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
@@ -1971,16 +2543,16 @@
       <c r="AX12" s="27"/>
       <c r="AY12" s="27"/>
       <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
       <c r="BC12" s="32"/>
       <c r="BD12" s="32"/>
       <c r="BE12" s="32"/>
       <c r="BF12" s="32"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
+      <c r="XFC12" s="0"/>
+      <c r="XFD12" s="0"/>
     </row>
-    <row r="13" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2010,10 +2582,10 @@
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="45"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
@@ -2036,16 +2608,16 @@
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
       <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
       <c r="BC13" s="32"/>
       <c r="BD13" s="32"/>
       <c r="BE13" s="32"/>
       <c r="BF13" s="32"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
+      <c r="XFC13" s="0"/>
+      <c r="XFD13" s="0"/>
     </row>
-    <row r="14" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2075,10 +2647,10 @@
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
       <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="45"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
@@ -2101,16 +2673,16 @@
       <c r="AX14" s="27"/>
       <c r="AY14" s="27"/>
       <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
       <c r="BC14" s="32"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="32"/>
       <c r="BF14" s="32"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="32"/>
+      <c r="XFC14" s="0"/>
+      <c r="XFD14" s="0"/>
     </row>
-    <row r="15" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2140,10 +2712,10 @@
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="45"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
@@ -2166,16 +2738,16 @@
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
       <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="32"/>
       <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
+      <c r="XFC15" s="0"/>
+      <c r="XFD15" s="0"/>
     </row>
-    <row r="16" spans="2:71" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2205,10 +2777,10 @@
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="45"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
@@ -2231,16 +2803,16 @@
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
       <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
       <c r="BC16" s="32"/>
       <c r="BD16" s="32"/>
       <c r="BE16" s="32"/>
       <c r="BF16" s="32"/>
-      <c r="BG16" s="32"/>
-      <c r="BH16" s="32"/>
+      <c r="XFC16" s="0"/>
+      <c r="XFD16" s="0"/>
     </row>
-    <row r="17" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2270,10 +2842,10 @@
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="45"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
@@ -2296,16 +2868,16 @@
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
       <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
       <c r="BC17" s="32"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="32"/>
       <c r="BF17" s="32"/>
-      <c r="BG17" s="32"/>
-      <c r="BH17" s="32"/>
+      <c r="XFC17" s="0"/>
+      <c r="XFD17" s="0"/>
     </row>
-    <row r="18" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2335,10 +2907,10 @@
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
       <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="45"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="27"/>
@@ -2361,16 +2933,16 @@
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
       <c r="AZ18" s="27"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="27"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
       <c r="BC18" s="32"/>
       <c r="BD18" s="32"/>
       <c r="BE18" s="32"/>
       <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
+      <c r="XFC18" s="0"/>
+      <c r="XFD18" s="0"/>
     </row>
-    <row r="19" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2400,10 +2972,10 @@
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="45"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="27"/>
@@ -2426,16 +2998,16 @@
       <c r="AX19" s="27"/>
       <c r="AY19" s="27"/>
       <c r="AZ19" s="27"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="27"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
-      <c r="BG19" s="32"/>
-      <c r="BH19" s="32"/>
+      <c r="XFC19" s="0"/>
+      <c r="XFD19" s="0"/>
     </row>
-    <row r="20" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="20" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2475,10 +3047,10 @@
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
       <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="45"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
       <c r="AF20" s="27"/>
       <c r="AG20" s="27"/>
@@ -2501,16 +3073,16 @@
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
       <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
       <c r="BC20" s="32"/>
       <c r="BD20" s="32"/>
       <c r="BE20" s="32"/>
       <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
+      <c r="XFC20" s="0"/>
+      <c r="XFD20" s="0"/>
     </row>
-    <row r="21" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B21" s="19" t="s">
         <v>13</v>
       </c>
@@ -2538,10 +3110,10 @@
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="45"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
@@ -2564,16 +3136,16 @@
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
       <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="32"/>
       <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
+      <c r="XFC21" s="0"/>
+      <c r="XFD21" s="0"/>
     </row>
-    <row r="22" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
@@ -2599,10 +3171,10 @@
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="45"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27"/>
@@ -2625,16 +3197,16 @@
       <c r="AX22" s="27"/>
       <c r="AY22" s="27"/>
       <c r="AZ22" s="27"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="27"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
       <c r="BC22" s="32"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="32"/>
       <c r="BF22" s="32"/>
-      <c r="BG22" s="32"/>
-      <c r="BH22" s="32"/>
+      <c r="XFC22" s="0"/>
+      <c r="XFD22" s="0"/>
     </row>
-    <row r="23" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B23" s="46"/>
       <c r="C23" s="47"/>
       <c r="D23" s="48"/>
@@ -2660,10 +3232,10 @@
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="45"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
@@ -2686,16 +3258,16 @@
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
       <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="32"/>
       <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
+      <c r="XFC23" s="0"/>
+      <c r="XFD23" s="0"/>
     </row>
-    <row r="24" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
       <c r="D24" s="48"/>
@@ -2721,10 +3293,10 @@
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="45"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
       <c r="AF24" s="27"/>
       <c r="AG24" s="27"/>
@@ -2747,16 +3319,16 @@
       <c r="AX24" s="27"/>
       <c r="AY24" s="27"/>
       <c r="AZ24" s="27"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="27"/>
+      <c r="BA24" s="32"/>
+      <c r="BB24" s="32"/>
       <c r="BC24" s="32"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
       <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
+      <c r="XFC24" s="0"/>
+      <c r="XFD24" s="0"/>
     </row>
-    <row r="25" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
       <c r="D25" s="48"/>
@@ -2782,10 +3354,10 @@
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="45"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
       <c r="AF25" s="27"/>
       <c r="AG25" s="27"/>
@@ -2808,19 +3380,19 @@
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
       <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
+      <c r="BA25" s="32"/>
+      <c r="BB25" s="32"/>
       <c r="BC25" s="32"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="32"/>
       <c r="BF25" s="32"/>
-      <c r="BG25" s="32"/>
-      <c r="BH25" s="32"/>
+      <c r="BI25" s="59"/>
+      <c r="BJ25" s="59"/>
       <c r="BK25" s="59"/>
-      <c r="BL25" s="59"/>
-      <c r="BM25" s="59"/>
+      <c r="XFC25" s="0"/>
+      <c r="XFD25" s="0"/>
     </row>
-    <row r="26" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
       <c r="D26" s="48"/>
@@ -2846,10 +3418,10 @@
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="45"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="27"/>
       <c r="AG26" s="27"/>
@@ -2872,16 +3444,16 @@
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
       <c r="AZ26" s="27"/>
-      <c r="BA26" s="27"/>
-      <c r="BB26" s="27"/>
+      <c r="BA26" s="32"/>
+      <c r="BB26" s="32"/>
       <c r="BC26" s="32"/>
       <c r="BD26" s="32"/>
       <c r="BE26" s="32"/>
       <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="32"/>
+      <c r="XFC26" s="0"/>
+      <c r="XFD26" s="0"/>
     </row>
-    <row r="27" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
       <c r="D27" s="48"/>
@@ -2907,10 +3479,10 @@
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="45"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
@@ -2933,16 +3505,16 @@
       <c r="AX27" s="27"/>
       <c r="AY27" s="27"/>
       <c r="AZ27" s="27"/>
-      <c r="BA27" s="27"/>
-      <c r="BB27" s="27"/>
+      <c r="BA27" s="32"/>
+      <c r="BB27" s="32"/>
       <c r="BC27" s="32"/>
       <c r="BD27" s="32"/>
       <c r="BE27" s="32"/>
       <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
+      <c r="XFC27" s="0"/>
+      <c r="XFD27" s="0"/>
     </row>
-    <row r="28" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
       <c r="D28" s="48"/>
@@ -2968,10 +3540,10 @@
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="45"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
       <c r="AF28" s="27"/>
       <c r="AG28" s="27"/>
@@ -2994,16 +3566,16 @@
       <c r="AX28" s="27"/>
       <c r="AY28" s="27"/>
       <c r="AZ28" s="27"/>
-      <c r="BA28" s="27"/>
-      <c r="BB28" s="27"/>
+      <c r="BA28" s="32"/>
+      <c r="BB28" s="32"/>
       <c r="BC28" s="32"/>
       <c r="BD28" s="32"/>
       <c r="BE28" s="32"/>
       <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
+      <c r="XFC28" s="0"/>
+      <c r="XFD28" s="0"/>
     </row>
-    <row r="29" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B29" s="46"/>
       <c r="C29" s="47"/>
       <c r="D29" s="48"/>
@@ -3029,10 +3601,10 @@
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="45"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
@@ -3055,16 +3627,16 @@
       <c r="AX29" s="27"/>
       <c r="AY29" s="27"/>
       <c r="AZ29" s="27"/>
-      <c r="BA29" s="27"/>
-      <c r="BB29" s="27"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="32"/>
       <c r="BC29" s="32"/>
       <c r="BD29" s="32"/>
       <c r="BE29" s="32"/>
       <c r="BF29" s="32"/>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
+      <c r="XFC29" s="0"/>
+      <c r="XFD29" s="0"/>
     </row>
-    <row r="30" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
       <c r="D30" s="48"/>
@@ -3090,10 +3662,10 @@
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="45"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
       <c r="AF30" s="27"/>
       <c r="AG30" s="27"/>
@@ -3116,16 +3688,16 @@
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
       <c r="AZ30" s="27"/>
-      <c r="BA30" s="27"/>
-      <c r="BB30" s="27"/>
+      <c r="BA30" s="32"/>
+      <c r="BB30" s="32"/>
       <c r="BC30" s="32"/>
       <c r="BD30" s="32"/>
       <c r="BE30" s="32"/>
       <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
+      <c r="XFC30" s="0"/>
+      <c r="XFD30" s="0"/>
     </row>
-    <row r="31" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
       <c r="D31" s="48"/>
@@ -3151,10 +3723,10 @@
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="45"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
@@ -3177,16 +3749,16 @@
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
       <c r="AZ31" s="27"/>
-      <c r="BA31" s="27"/>
-      <c r="BB31" s="27"/>
+      <c r="BA31" s="32"/>
+      <c r="BB31" s="32"/>
       <c r="BC31" s="32"/>
       <c r="BD31" s="32"/>
       <c r="BE31" s="32"/>
       <c r="BF31" s="32"/>
-      <c r="BG31" s="32"/>
-      <c r="BH31" s="32"/>
+      <c r="XFC31" s="0"/>
+      <c r="XFD31" s="0"/>
     </row>
-    <row r="32" spans="2:65" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
@@ -3212,10 +3784,10 @@
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
       <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="45"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
       <c r="AF32" s="27"/>
       <c r="AG32" s="27"/>
@@ -3238,16 +3810,16 @@
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
       <c r="AZ32" s="27"/>
-      <c r="BA32" s="27"/>
-      <c r="BB32" s="27"/>
+      <c r="BA32" s="32"/>
+      <c r="BB32" s="32"/>
       <c r="BC32" s="32"/>
       <c r="BD32" s="32"/>
       <c r="BE32" s="32"/>
       <c r="BF32" s="32"/>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
+      <c r="XFC32" s="0"/>
+      <c r="XFD32" s="0"/>
     </row>
-    <row r="33" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
       <c r="D33" s="48"/>
@@ -3273,10 +3845,10 @@
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="45"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
       <c r="AG33" s="27"/>
@@ -3299,16 +3871,16 @@
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
       <c r="AZ33" s="27"/>
-      <c r="BA33" s="27"/>
-      <c r="BB33" s="27"/>
+      <c r="BA33" s="32"/>
+      <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
       <c r="BD33" s="32"/>
       <c r="BE33" s="32"/>
       <c r="BF33" s="32"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
+      <c r="XFC33" s="0"/>
+      <c r="XFD33" s="0"/>
     </row>
-    <row r="34" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
       <c r="D34" s="48"/>
@@ -3334,10 +3906,10 @@
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="45"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
       <c r="AF34" s="27"/>
       <c r="AG34" s="27"/>
@@ -3360,16 +3932,16 @@
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
       <c r="AZ34" s="27"/>
-      <c r="BA34" s="27"/>
-      <c r="BB34" s="27"/>
+      <c r="BA34" s="32"/>
+      <c r="BB34" s="32"/>
       <c r="BC34" s="32"/>
       <c r="BD34" s="32"/>
       <c r="BE34" s="32"/>
       <c r="BF34" s="32"/>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
+      <c r="XFC34" s="0"/>
+      <c r="XFD34" s="0"/>
     </row>
-    <row r="35" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B35" s="46"/>
       <c r="C35" s="47"/>
       <c r="D35" s="48"/>
@@ -3395,10 +3967,10 @@
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="45"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
       <c r="AF35" s="27"/>
       <c r="AG35" s="27"/>
@@ -3421,16 +3993,16 @@
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
       <c r="AZ35" s="27"/>
-      <c r="BA35" s="27"/>
-      <c r="BB35" s="27"/>
+      <c r="BA35" s="32"/>
+      <c r="BB35" s="32"/>
       <c r="BC35" s="32"/>
       <c r="BD35" s="32"/>
       <c r="BE35" s="32"/>
       <c r="BF35" s="32"/>
-      <c r="BG35" s="32"/>
-      <c r="BH35" s="32"/>
+      <c r="XFC35" s="0"/>
+      <c r="XFD35" s="0"/>
     </row>
-    <row r="36" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
       <c r="D36" s="48"/>
@@ -3456,10 +4028,10 @@
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="45"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
       <c r="AF36" s="27"/>
       <c r="AG36" s="27"/>
@@ -3482,16 +4054,16 @@
       <c r="AX36" s="27"/>
       <c r="AY36" s="27"/>
       <c r="AZ36" s="27"/>
-      <c r="BA36" s="27"/>
-      <c r="BB36" s="27"/>
+      <c r="BA36" s="32"/>
+      <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
       <c r="BD36" s="32"/>
       <c r="BE36" s="32"/>
       <c r="BF36" s="32"/>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
+      <c r="XFC36" s="0"/>
+      <c r="XFD36" s="0"/>
     </row>
-    <row r="37" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B37" s="46"/>
       <c r="C37" s="47"/>
       <c r="D37" s="48"/>
@@ -3517,10 +4089,10 @@
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="45"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
       <c r="AF37" s="27"/>
       <c r="AG37" s="27"/>
@@ -3543,16 +4115,16 @@
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
       <c r="AZ37" s="27"/>
-      <c r="BA37" s="27"/>
-      <c r="BB37" s="27"/>
+      <c r="BA37" s="32"/>
+      <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
       <c r="BD37" s="32"/>
       <c r="BE37" s="32"/>
       <c r="BF37" s="32"/>
-      <c r="BG37" s="32"/>
-      <c r="BH37" s="32"/>
+      <c r="XFC37" s="0"/>
+      <c r="XFD37" s="0"/>
     </row>
-    <row r="38" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
       <c r="D38" s="48"/>
@@ -3578,10 +4150,10 @@
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
       <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="45"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
       <c r="AF38" s="27"/>
       <c r="AG38" s="27"/>
@@ -3604,16 +4176,16 @@
       <c r="AX38" s="27"/>
       <c r="AY38" s="27"/>
       <c r="AZ38" s="27"/>
-      <c r="BA38" s="27"/>
-      <c r="BB38" s="27"/>
+      <c r="BA38" s="32"/>
+      <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
       <c r="BD38" s="32"/>
       <c r="BE38" s="32"/>
       <c r="BF38" s="32"/>
-      <c r="BG38" s="32"/>
-      <c r="BH38" s="32"/>
+      <c r="XFC38" s="0"/>
+      <c r="XFD38" s="0"/>
     </row>
-    <row r="39" spans="2:60" ht="1.05" customHeight="1">
+    <row r="39" spans="2:16384" ht="1.050000" customHeight="1">
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
       <c r="D39" s="48"/>
@@ -3639,10 +4211,10 @@
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="45"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
       <c r="AF39" s="27"/>
       <c r="AG39" s="27"/>
@@ -3665,16 +4237,16 @@
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
       <c r="AZ39" s="27"/>
-      <c r="BA39" s="27"/>
-      <c r="BB39" s="27"/>
+      <c r="BA39" s="32"/>
+      <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
       <c r="BD39" s="32"/>
       <c r="BE39" s="32"/>
       <c r="BF39" s="32"/>
-      <c r="BG39" s="32"/>
-      <c r="BH39" s="32"/>
+      <c r="XFC39" s="0"/>
+      <c r="XFD39" s="0"/>
     </row>
-    <row r="40" spans="2:60" ht="17.399999999999999" hidden="1" customHeight="1">
+    <row r="40" spans="2:16384" ht="17.400000" hidden="1" customHeight="1">
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
@@ -3700,10 +4272,10 @@
       <c r="X40" s="27"/>
       <c r="Y40" s="27"/>
       <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="45"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
       <c r="AF40" s="27"/>
       <c r="AG40" s="27"/>
@@ -3726,16 +4298,16 @@
       <c r="AX40" s="27"/>
       <c r="AY40" s="27"/>
       <c r="AZ40" s="27"/>
-      <c r="BA40" s="27"/>
-      <c r="BB40" s="27"/>
+      <c r="BA40" s="32"/>
+      <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
       <c r="BD40" s="32"/>
       <c r="BE40" s="32"/>
       <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
+      <c r="XFC40" s="0"/>
+      <c r="XFD40" s="0"/>
     </row>
-    <row r="41" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="41" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
@@ -3761,10 +4333,10 @@
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="45"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
       <c r="AF41" s="27"/>
       <c r="AG41" s="27"/>
@@ -3787,16 +4359,16 @@
       <c r="AX41" s="27"/>
       <c r="AY41" s="27"/>
       <c r="AZ41" s="27"/>
-      <c r="BA41" s="27"/>
-      <c r="BB41" s="27"/>
+      <c r="BA41" s="32"/>
+      <c r="BB41" s="32"/>
       <c r="BC41" s="32"/>
       <c r="BD41" s="32"/>
       <c r="BE41" s="32"/>
       <c r="BF41" s="32"/>
-      <c r="BG41" s="32"/>
-      <c r="BH41" s="32"/>
+      <c r="XFC41" s="0"/>
+      <c r="XFD41" s="0"/>
     </row>
-    <row r="42" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="42" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
@@ -3822,10 +4394,10 @@
       <c r="X42" s="27"/>
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="45"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
       <c r="AF42" s="27"/>
       <c r="AG42" s="27"/>
@@ -3848,16 +4420,16 @@
       <c r="AX42" s="27"/>
       <c r="AY42" s="27"/>
       <c r="AZ42" s="27"/>
-      <c r="BA42" s="27"/>
-      <c r="BB42" s="27"/>
+      <c r="BA42" s="32"/>
+      <c r="BB42" s="32"/>
       <c r="BC42" s="32"/>
       <c r="BD42" s="32"/>
       <c r="BE42" s="32"/>
       <c r="BF42" s="32"/>
-      <c r="BG42" s="32"/>
-      <c r="BH42" s="32"/>
+      <c r="XFC42" s="0"/>
+      <c r="XFD42" s="0"/>
     </row>
-    <row r="43" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="43" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B43" s="19" t="s">
         <v>17</v>
       </c>
@@ -3885,10 +4457,10 @@
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="45"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
       <c r="AF43" s="27"/>
       <c r="AG43" s="27"/>
@@ -3911,16 +4483,16 @@
       <c r="AX43" s="27"/>
       <c r="AY43" s="27"/>
       <c r="AZ43" s="27"/>
-      <c r="BA43" s="27"/>
-      <c r="BB43" s="27"/>
+      <c r="BA43" s="32"/>
+      <c r="BB43" s="32"/>
       <c r="BC43" s="32"/>
       <c r="BD43" s="32"/>
       <c r="BE43" s="32"/>
       <c r="BF43" s="32"/>
-      <c r="BG43" s="32"/>
-      <c r="BH43" s="32"/>
+      <c r="XFC43" s="0"/>
+      <c r="XFD43" s="0"/>
     </row>
-    <row r="44" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="44" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B44" s="2" t="s">
         <v>18</v>
       </c>
@@ -3950,10 +4522,10 @@
       <c r="X44" s="27"/>
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="45"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27"/>
       <c r="AE44" s="27"/>
       <c r="AF44" s="27"/>
       <c r="AG44" s="27"/>
@@ -3982,10 +4554,10 @@
       <c r="BD44" s="27"/>
       <c r="BE44" s="27"/>
       <c r="BF44" s="27"/>
-      <c r="BG44" s="27"/>
-      <c r="BH44" s="27"/>
+      <c r="XFC44" s="0"/>
+      <c r="XFD44" s="0"/>
     </row>
-    <row r="45" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="45" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B45" s="2" t="s">
         <v>19</v>
       </c>
@@ -4015,10 +4587,10 @@
       <c r="X45" s="27"/>
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="45"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27"/>
       <c r="AE45" s="27"/>
       <c r="AF45" s="27"/>
       <c r="AG45" s="27"/>
@@ -4041,823 +4613,823 @@
       <c r="AX45" s="27"/>
       <c r="AY45" s="27"/>
       <c r="AZ45" s="27"/>
-      <c r="BA45" s="27"/>
-      <c r="BB45" s="27"/>
+      <c r="BA45" s="32"/>
+      <c r="BB45" s="32"/>
       <c r="BC45" s="32"/>
       <c r="BD45" s="32"/>
       <c r="BE45" s="32"/>
       <c r="BF45" s="32"/>
-      <c r="BG45" s="32"/>
-      <c r="BH45" s="32"/>
+      <c r="XFC45" s="0"/>
+      <c r="XFD45" s="0"/>
     </row>
-    <row r="46" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="46" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="I46" s="56"/>
       <c r="J46" s="57"/>
       <c r="K46" s="55"/>
     </row>
-    <row r="47" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="47" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="J47" s="54"/>
       <c r="K47" s="58"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:60" ht="17.399999999999999" customHeight="1">
+    <row r="48" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="J48" s="54"/>
       <c r="K48" s="54"/>
     </row>
-    <row r="49" ht="17.399999999999999" customHeight="1"/>
-    <row r="50" ht="17.399999999999999" customHeight="1"/>
-    <row r="51" ht="17.399999999999999" customHeight="1"/>
-    <row r="52" ht="17.399999999999999" customHeight="1"/>
-    <row r="53" ht="17.399999999999999" customHeight="1"/>
-    <row r="54" ht="17.399999999999999" customHeight="1"/>
-    <row r="55" ht="17.399999999999999" customHeight="1"/>
-    <row r="56" ht="17.399999999999999" customHeight="1"/>
-    <row r="57" ht="17.399999999999999" customHeight="1"/>
-    <row r="58" ht="17.399999999999999" customHeight="1"/>
-    <row r="59" ht="17.399999999999999" customHeight="1"/>
-    <row r="60" ht="17.399999999999999" customHeight="1"/>
-    <row r="61" ht="17.399999999999999" customHeight="1"/>
-    <row r="62" ht="17.399999999999999" customHeight="1"/>
-    <row r="63" ht="17.399999999999999" customHeight="1"/>
-    <row r="64" ht="17.399999999999999" customHeight="1"/>
-    <row r="65" ht="17.399999999999999" customHeight="1"/>
-    <row r="66" ht="17.399999999999999" customHeight="1"/>
-    <row r="67" ht="17.399999999999999" customHeight="1"/>
-    <row r="68" ht="17.399999999999999" customHeight="1"/>
-    <row r="69" ht="17.399999999999999" customHeight="1"/>
-    <row r="70" ht="17.399999999999999" customHeight="1"/>
-    <row r="71" ht="17.399999999999999" customHeight="1"/>
-    <row r="72" ht="17.399999999999999" customHeight="1"/>
-    <row r="73" ht="17.399999999999999" customHeight="1"/>
-    <row r="74" ht="17.399999999999999" customHeight="1"/>
-    <row r="75" ht="17.399999999999999" customHeight="1"/>
-    <row r="76" ht="17.399999999999999" customHeight="1"/>
-    <row r="77" ht="17.399999999999999" hidden="1" customHeight="1"/>
-    <row r="78" ht="17.399999999999999" customHeight="1"/>
-    <row r="79" ht="17.399999999999999" customHeight="1"/>
-    <row r="80" ht="17.399999999999999" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="49" ht="17.400000" customHeight="1"/>
+    <row r="50" ht="17.400000" customHeight="1"/>
+    <row r="51" ht="17.400000" customHeight="1"/>
+    <row r="52" ht="17.400000" customHeight="1"/>
+    <row r="53" ht="17.400000" customHeight="1"/>
+    <row r="54" ht="17.400000" customHeight="1"/>
+    <row r="55" ht="17.400000" customHeight="1"/>
+    <row r="56" ht="17.400000" customHeight="1"/>
+    <row r="57" ht="17.400000" customHeight="1"/>
+    <row r="58" ht="17.400000" customHeight="1"/>
+    <row r="59" ht="17.400000" customHeight="1"/>
+    <row r="60" ht="17.400000" customHeight="1"/>
+    <row r="61" ht="17.400000" customHeight="1"/>
+    <row r="62" ht="17.400000" customHeight="1"/>
+    <row r="63" ht="17.400000" customHeight="1"/>
+    <row r="64" ht="17.400000" customHeight="1"/>
+    <row r="65" ht="17.400000" customHeight="1"/>
+    <row r="66" ht="17.400000" customHeight="1"/>
+    <row r="67" ht="17.400000" customHeight="1"/>
+    <row r="68" ht="17.400000" customHeight="1"/>
+    <row r="69" ht="17.400000" customHeight="1"/>
+    <row r="70" ht="17.400000" customHeight="1"/>
+    <row r="71" ht="17.400000" customHeight="1"/>
+    <row r="72" ht="17.400000" customHeight="1"/>
+    <row r="73" ht="17.400000" customHeight="1"/>
+    <row r="74" ht="17.400000" customHeight="1"/>
+    <row r="75" ht="17.400000" customHeight="1"/>
+    <row r="76" ht="17.400000" customHeight="1"/>
+    <row r="77" ht="17.400000" hidden="1" customHeight="1"/>
+    <row r="78" ht="17.400000" customHeight="1"/>
+    <row r="79" ht="17.400000" customHeight="1"/>
+    <row r="80" ht="17.400000" customHeight="1"/>
+    <row r="81" ht="12.750000" customHeight="1"/>
+    <row r="82" ht="12.750000" customHeight="1"/>
+    <row r="83" ht="12.750000" customHeight="1"/>
+    <row r="84" ht="12.750000" customHeight="1"/>
+    <row r="85" ht="12.750000" customHeight="1"/>
+    <row r="86" ht="12.750000" customHeight="1"/>
+    <row r="87" ht="12.750000" customHeight="1"/>
+    <row r="88" ht="12.750000" customHeight="1"/>
+    <row r="89" ht="12.750000" customHeight="1"/>
+    <row r="90" ht="12.750000" customHeight="1"/>
+    <row r="91" ht="12.750000" customHeight="1"/>
+    <row r="92" ht="12.750000" customHeight="1"/>
+    <row r="93" ht="12.750000" customHeight="1"/>
+    <row r="94" ht="12.750000" customHeight="1"/>
+    <row r="95" ht="12.750000" customHeight="1"/>
+    <row r="96" ht="12.750000" customHeight="1"/>
+    <row r="97" ht="12.750000" customHeight="1"/>
+    <row r="98" ht="12.750000" customHeight="1"/>
+    <row r="99" ht="12.750000" customHeight="1"/>
+    <row r="100" ht="12.750000" customHeight="1"/>
+    <row r="101" ht="12.750000" customHeight="1"/>
+    <row r="102" ht="12.750000" customHeight="1"/>
+    <row r="103" ht="12.750000" customHeight="1"/>
+    <row r="104" ht="12.750000" customHeight="1"/>
+    <row r="105" ht="12.750000" customHeight="1"/>
+    <row r="106" ht="12.750000" customHeight="1"/>
+    <row r="107" ht="12.750000" customHeight="1"/>
+    <row r="108" ht="12.750000" customHeight="1"/>
+    <row r="109" ht="12.750000" customHeight="1"/>
+    <row r="110" ht="12.750000" customHeight="1"/>
+    <row r="111" ht="12.750000" customHeight="1"/>
+    <row r="112" ht="12.750000" customHeight="1"/>
+    <row r="113" ht="12.750000" customHeight="1"/>
+    <row r="114" ht="12.750000" customHeight="1"/>
+    <row r="115" ht="12.750000" customHeight="1"/>
+    <row r="116" ht="12.750000" customHeight="1"/>
+    <row r="117" ht="12.750000" customHeight="1"/>
+    <row r="118" ht="12.750000" customHeight="1"/>
+    <row r="119" ht="12.750000" customHeight="1"/>
+    <row r="120" ht="12.750000" customHeight="1"/>
+    <row r="121" ht="12.750000" customHeight="1"/>
+    <row r="122" ht="12.750000" customHeight="1"/>
+    <row r="123" ht="12.750000" customHeight="1"/>
+    <row r="124" ht="12.750000" customHeight="1"/>
+    <row r="125" ht="12.750000" customHeight="1"/>
+    <row r="126" ht="12.750000" customHeight="1"/>
+    <row r="127" ht="12.750000" customHeight="1"/>
+    <row r="128" ht="12.750000" customHeight="1"/>
+    <row r="129" ht="12.750000" customHeight="1"/>
+    <row r="130" ht="12.750000" customHeight="1"/>
+    <row r="131" ht="12.750000" customHeight="1"/>
+    <row r="132" ht="12.750000" customHeight="1"/>
+    <row r="133" ht="12.750000" customHeight="1"/>
+    <row r="134" ht="12.750000" customHeight="1"/>
+    <row r="135" ht="12.750000" customHeight="1"/>
+    <row r="136" ht="12.750000" customHeight="1"/>
+    <row r="137" ht="12.750000" customHeight="1"/>
+    <row r="138" ht="12.750000" customHeight="1"/>
+    <row r="139" ht="12.750000" customHeight="1"/>
+    <row r="140" ht="12.750000" customHeight="1"/>
+    <row r="141" ht="12.750000" customHeight="1"/>
+    <row r="142" ht="12.750000" customHeight="1"/>
+    <row r="143" ht="12.750000" customHeight="1"/>
+    <row r="144" ht="12.750000" customHeight="1"/>
+    <row r="145" ht="12.750000" customHeight="1"/>
+    <row r="146" ht="12.750000" customHeight="1"/>
+    <row r="147" ht="12.750000" customHeight="1"/>
+    <row r="148" ht="12.750000" customHeight="1"/>
+    <row r="149" ht="12.750000" customHeight="1"/>
+    <row r="150" ht="12.750000" customHeight="1"/>
+    <row r="151" ht="12.750000" customHeight="1"/>
+    <row r="152" ht="12.750000" customHeight="1"/>
+    <row r="153" ht="12.750000" customHeight="1"/>
+    <row r="154" ht="12.750000" customHeight="1"/>
+    <row r="155" ht="12.750000" customHeight="1"/>
+    <row r="156" ht="12.750000" customHeight="1"/>
+    <row r="157" ht="12.750000" customHeight="1"/>
+    <row r="158" ht="12.750000" customHeight="1"/>
+    <row r="159" ht="12.750000" customHeight="1"/>
+    <row r="160" ht="12.750000" customHeight="1"/>
+    <row r="161" ht="12.750000" customHeight="1"/>
+    <row r="162" ht="12.750000" customHeight="1"/>
+    <row r="163" ht="12.750000" customHeight="1"/>
+    <row r="164" ht="12.750000" customHeight="1"/>
+    <row r="165" ht="12.750000" customHeight="1"/>
+    <row r="166" ht="12.750000" customHeight="1"/>
+    <row r="167" ht="12.750000" customHeight="1"/>
+    <row r="168" ht="12.750000" customHeight="1"/>
+    <row r="169" ht="12.750000" customHeight="1"/>
+    <row r="170" ht="12.750000" customHeight="1"/>
+    <row r="171" ht="12.750000" customHeight="1"/>
+    <row r="172" ht="12.750000" customHeight="1"/>
+    <row r="173" ht="12.750000" customHeight="1"/>
+    <row r="174" ht="12.750000" customHeight="1"/>
+    <row r="175" ht="12.750000" customHeight="1"/>
+    <row r="176" ht="12.750000" customHeight="1"/>
+    <row r="177" ht="12.750000" customHeight="1"/>
+    <row r="178" ht="12.750000" customHeight="1"/>
+    <row r="179" ht="12.750000" customHeight="1"/>
+    <row r="180" ht="12.750000" customHeight="1"/>
+    <row r="181" ht="12.750000" customHeight="1"/>
+    <row r="182" ht="12.750000" customHeight="1"/>
+    <row r="183" ht="12.750000" customHeight="1"/>
+    <row r="184" ht="12.750000" customHeight="1"/>
+    <row r="185" ht="12.750000" customHeight="1"/>
+    <row r="186" ht="12.750000" customHeight="1"/>
+    <row r="187" ht="12.750000" customHeight="1"/>
+    <row r="188" ht="12.750000" customHeight="1"/>
+    <row r="189" ht="12.750000" customHeight="1"/>
+    <row r="190" ht="12.750000" customHeight="1"/>
+    <row r="191" ht="12.750000" customHeight="1"/>
+    <row r="192" ht="12.750000" customHeight="1"/>
+    <row r="193" ht="12.750000" customHeight="1"/>
+    <row r="194" ht="12.750000" customHeight="1"/>
+    <row r="195" ht="12.750000" customHeight="1"/>
+    <row r="196" ht="12.750000" customHeight="1"/>
+    <row r="197" ht="12.750000" customHeight="1"/>
+    <row r="198" ht="12.750000" customHeight="1"/>
+    <row r="199" ht="12.750000" customHeight="1"/>
+    <row r="200" ht="12.750000" customHeight="1"/>
+    <row r="201" ht="12.750000" customHeight="1"/>
+    <row r="202" ht="12.750000" customHeight="1"/>
+    <row r="203" ht="12.750000" customHeight="1"/>
+    <row r="204" ht="12.750000" customHeight="1"/>
+    <row r="205" ht="12.750000" customHeight="1"/>
+    <row r="206" ht="12.750000" customHeight="1"/>
+    <row r="207" ht="12.750000" customHeight="1"/>
+    <row r="208" ht="12.750000" customHeight="1"/>
+    <row r="209" ht="12.750000" customHeight="1"/>
+    <row r="210" ht="12.750000" customHeight="1"/>
+    <row r="211" ht="12.750000" customHeight="1"/>
+    <row r="212" ht="12.750000" customHeight="1"/>
+    <row r="213" ht="12.750000" customHeight="1"/>
+    <row r="214" ht="12.750000" customHeight="1"/>
+    <row r="215" ht="12.750000" customHeight="1"/>
+    <row r="216" ht="12.750000" customHeight="1"/>
+    <row r="217" ht="12.750000" customHeight="1"/>
+    <row r="218" ht="12.750000" customHeight="1"/>
+    <row r="219" ht="12.750000" customHeight="1"/>
+    <row r="220" ht="12.750000" customHeight="1"/>
+    <row r="221" ht="12.750000" customHeight="1"/>
+    <row r="222" ht="12.750000" customHeight="1"/>
+    <row r="223" ht="12.750000" customHeight="1"/>
+    <row r="224" ht="12.750000" customHeight="1"/>
+    <row r="225" ht="12.750000" customHeight="1"/>
+    <row r="226" ht="12.750000" customHeight="1"/>
+    <row r="227" ht="12.750000" customHeight="1"/>
+    <row r="228" ht="12.750000" customHeight="1"/>
+    <row r="229" ht="12.750000" customHeight="1"/>
+    <row r="230" ht="12.750000" customHeight="1"/>
+    <row r="231" ht="12.750000" customHeight="1"/>
+    <row r="232" ht="12.750000" customHeight="1"/>
+    <row r="233" ht="12.750000" customHeight="1"/>
+    <row r="234" ht="12.750000" customHeight="1"/>
+    <row r="235" ht="12.750000" customHeight="1"/>
+    <row r="236" ht="12.750000" customHeight="1"/>
+    <row r="237" ht="12.750000" customHeight="1"/>
+    <row r="238" ht="12.750000" customHeight="1"/>
+    <row r="239" ht="12.750000" customHeight="1"/>
+    <row r="240" ht="12.750000" customHeight="1"/>
+    <row r="241" ht="12.750000" customHeight="1"/>
+    <row r="242" ht="12.750000" customHeight="1"/>
+    <row r="243" ht="12.750000" customHeight="1"/>
+    <row r="244" ht="12.750000" customHeight="1"/>
+    <row r="245" ht="12.750000" customHeight="1"/>
+    <row r="246" ht="12.750000" customHeight="1"/>
+    <row r="247" ht="12.750000" customHeight="1"/>
+    <row r="248" ht="12.750000" customHeight="1"/>
+    <row r="249" ht="12.750000" customHeight="1"/>
+    <row r="250" ht="12.750000" customHeight="1"/>
+    <row r="251" ht="12.750000" customHeight="1"/>
+    <row r="252" ht="12.750000" customHeight="1"/>
+    <row r="253" ht="12.750000" customHeight="1"/>
+    <row r="254" ht="12.750000" customHeight="1"/>
+    <row r="255" ht="12.750000" customHeight="1"/>
+    <row r="256" ht="12.750000" customHeight="1"/>
+    <row r="257" ht="12.750000" customHeight="1"/>
+    <row r="258" ht="12.750000" customHeight="1"/>
+    <row r="259" ht="12.750000" customHeight="1"/>
+    <row r="260" ht="12.750000" customHeight="1"/>
+    <row r="261" ht="12.750000" customHeight="1"/>
+    <row r="262" ht="12.750000" customHeight="1"/>
+    <row r="263" ht="12.750000" customHeight="1"/>
+    <row r="264" ht="12.750000" customHeight="1"/>
+    <row r="265" ht="12.750000" customHeight="1"/>
+    <row r="266" ht="12.750000" customHeight="1"/>
+    <row r="267" ht="12.750000" customHeight="1"/>
+    <row r="268" ht="12.750000" customHeight="1"/>
+    <row r="269" ht="12.750000" customHeight="1"/>
+    <row r="270" ht="12.750000" customHeight="1"/>
+    <row r="271" ht="12.750000" customHeight="1"/>
+    <row r="272" ht="12.750000" customHeight="1"/>
+    <row r="273" ht="12.750000" customHeight="1"/>
+    <row r="274" ht="12.750000" customHeight="1"/>
+    <row r="275" ht="12.750000" customHeight="1"/>
+    <row r="276" ht="12.750000" customHeight="1"/>
+    <row r="277" ht="12.750000" customHeight="1"/>
+    <row r="278" ht="12.750000" customHeight="1"/>
+    <row r="279" ht="12.750000" customHeight="1"/>
+    <row r="280" ht="12.750000" customHeight="1"/>
+    <row r="281" ht="12.750000" customHeight="1"/>
+    <row r="282" ht="12.750000" customHeight="1"/>
+    <row r="283" ht="12.750000" customHeight="1"/>
+    <row r="284" ht="12.750000" customHeight="1"/>
+    <row r="285" ht="12.750000" customHeight="1"/>
+    <row r="286" ht="12.750000" customHeight="1"/>
+    <row r="287" ht="12.750000" customHeight="1"/>
+    <row r="288" ht="12.750000" customHeight="1"/>
+    <row r="289" ht="12.750000" customHeight="1"/>
+    <row r="290" ht="12.750000" customHeight="1"/>
+    <row r="291" ht="12.750000" customHeight="1"/>
+    <row r="292" ht="12.750000" customHeight="1"/>
+    <row r="293" ht="12.750000" customHeight="1"/>
+    <row r="294" ht="12.750000" customHeight="1"/>
+    <row r="295" ht="12.750000" customHeight="1"/>
+    <row r="296" ht="12.750000" customHeight="1"/>
+    <row r="297" ht="12.750000" customHeight="1"/>
+    <row r="298" ht="12.750000" customHeight="1"/>
+    <row r="299" ht="12.750000" customHeight="1"/>
+    <row r="300" ht="12.750000" customHeight="1"/>
+    <row r="301" ht="12.750000" customHeight="1"/>
+    <row r="302" ht="12.750000" customHeight="1"/>
+    <row r="303" ht="12.750000" customHeight="1"/>
+    <row r="304" ht="12.750000" customHeight="1"/>
+    <row r="305" ht="12.750000" customHeight="1"/>
+    <row r="306" ht="12.750000" customHeight="1"/>
+    <row r="307" ht="12.750000" customHeight="1"/>
+    <row r="308" ht="12.750000" customHeight="1"/>
+    <row r="309" ht="12.750000" customHeight="1"/>
+    <row r="310" ht="12.750000" customHeight="1"/>
+    <row r="311" ht="12.750000" customHeight="1"/>
+    <row r="312" ht="12.750000" customHeight="1"/>
+    <row r="313" ht="12.750000" customHeight="1"/>
+    <row r="314" ht="12.750000" customHeight="1"/>
+    <row r="315" ht="12.750000" customHeight="1"/>
+    <row r="316" ht="12.750000" customHeight="1"/>
+    <row r="317" ht="12.750000" customHeight="1"/>
+    <row r="318" ht="12.750000" customHeight="1"/>
+    <row r="319" ht="12.750000" customHeight="1"/>
+    <row r="320" ht="12.750000" customHeight="1"/>
+    <row r="321" ht="12.750000" customHeight="1"/>
+    <row r="322" ht="12.750000" customHeight="1"/>
+    <row r="323" ht="12.750000" customHeight="1"/>
+    <row r="324" ht="12.750000" customHeight="1"/>
+    <row r="325" ht="12.750000" customHeight="1"/>
+    <row r="326" ht="12.750000" customHeight="1"/>
+    <row r="327" ht="12.750000" customHeight="1"/>
+    <row r="328" ht="12.750000" customHeight="1"/>
+    <row r="329" ht="12.750000" customHeight="1"/>
+    <row r="330" ht="12.750000" customHeight="1"/>
+    <row r="331" ht="12.750000" customHeight="1"/>
+    <row r="332" ht="12.750000" customHeight="1"/>
+    <row r="333" ht="12.750000" customHeight="1"/>
+    <row r="334" ht="12.750000" customHeight="1"/>
+    <row r="335" ht="12.750000" customHeight="1"/>
+    <row r="336" ht="12.750000" customHeight="1"/>
+    <row r="337" ht="12.750000" customHeight="1"/>
+    <row r="338" ht="12.750000" customHeight="1"/>
+    <row r="339" ht="12.750000" customHeight="1"/>
+    <row r="340" ht="12.750000" customHeight="1"/>
+    <row r="341" ht="12.750000" customHeight="1"/>
+    <row r="342" ht="12.750000" customHeight="1"/>
+    <row r="343" ht="12.750000" customHeight="1"/>
+    <row r="344" ht="12.750000" customHeight="1"/>
+    <row r="345" ht="12.750000" customHeight="1"/>
+    <row r="346" ht="12.750000" customHeight="1"/>
+    <row r="347" ht="12.750000" customHeight="1"/>
+    <row r="348" ht="12.750000" customHeight="1"/>
+    <row r="349" ht="12.750000" customHeight="1"/>
+    <row r="350" ht="12.750000" customHeight="1"/>
+    <row r="351" ht="12.750000" customHeight="1"/>
+    <row r="352" ht="12.750000" customHeight="1"/>
+    <row r="353" ht="12.750000" customHeight="1"/>
+    <row r="354" ht="12.750000" customHeight="1"/>
+    <row r="355" ht="12.750000" customHeight="1"/>
+    <row r="356" ht="12.750000" customHeight="1"/>
+    <row r="357" ht="12.750000" customHeight="1"/>
+    <row r="358" ht="12.750000" customHeight="1"/>
+    <row r="359" ht="12.750000" customHeight="1"/>
+    <row r="360" ht="12.750000" customHeight="1"/>
+    <row r="361" ht="12.750000" customHeight="1"/>
+    <row r="362" ht="12.750000" customHeight="1"/>
+    <row r="363" ht="12.750000" customHeight="1"/>
+    <row r="364" ht="12.750000" customHeight="1"/>
+    <row r="365" ht="12.750000" customHeight="1"/>
+    <row r="366" ht="12.750000" customHeight="1"/>
+    <row r="367" ht="12.750000" customHeight="1"/>
+    <row r="368" ht="12.750000" customHeight="1"/>
+    <row r="369" ht="12.750000" customHeight="1"/>
+    <row r="370" ht="12.750000" customHeight="1"/>
+    <row r="371" ht="12.750000" customHeight="1"/>
+    <row r="372" ht="12.750000" customHeight="1"/>
+    <row r="373" ht="12.750000" customHeight="1"/>
+    <row r="374" ht="12.750000" customHeight="1"/>
+    <row r="375" ht="12.750000" customHeight="1"/>
+    <row r="376" ht="12.750000" customHeight="1"/>
+    <row r="377" ht="12.750000" customHeight="1"/>
+    <row r="378" ht="12.750000" customHeight="1"/>
+    <row r="379" ht="12.750000" customHeight="1"/>
+    <row r="380" ht="12.750000" customHeight="1"/>
+    <row r="381" ht="12.750000" customHeight="1"/>
+    <row r="382" ht="12.750000" customHeight="1"/>
+    <row r="383" ht="12.750000" customHeight="1"/>
+    <row r="384" ht="12.750000" customHeight="1"/>
+    <row r="385" ht="12.750000" customHeight="1"/>
+    <row r="386" ht="12.750000" customHeight="1"/>
+    <row r="387" ht="12.750000" customHeight="1"/>
+    <row r="388" ht="12.750000" customHeight="1"/>
+    <row r="389" ht="12.750000" customHeight="1"/>
+    <row r="390" ht="12.750000" customHeight="1"/>
+    <row r="391" ht="12.750000" customHeight="1"/>
+    <row r="392" ht="12.750000" customHeight="1"/>
+    <row r="393" ht="12.750000" customHeight="1"/>
+    <row r="394" ht="12.750000" customHeight="1"/>
+    <row r="395" ht="12.750000" customHeight="1"/>
+    <row r="396" ht="12.750000" customHeight="1"/>
+    <row r="397" ht="12.750000" customHeight="1"/>
+    <row r="398" ht="12.750000" customHeight="1"/>
+    <row r="399" ht="12.750000" customHeight="1"/>
+    <row r="400" ht="12.750000" customHeight="1"/>
+    <row r="401" ht="12.750000" customHeight="1"/>
+    <row r="402" ht="12.750000" customHeight="1"/>
+    <row r="403" ht="12.750000" customHeight="1"/>
+    <row r="404" ht="12.750000" customHeight="1"/>
+    <row r="405" ht="12.750000" customHeight="1"/>
+    <row r="406" ht="12.750000" customHeight="1"/>
+    <row r="407" ht="12.750000" customHeight="1"/>
+    <row r="408" ht="12.750000" customHeight="1"/>
+    <row r="409" ht="12.750000" customHeight="1"/>
+    <row r="410" ht="12.750000" customHeight="1"/>
+    <row r="411" ht="12.750000" customHeight="1"/>
+    <row r="412" ht="12.750000" customHeight="1"/>
+    <row r="413" ht="12.750000" customHeight="1"/>
+    <row r="414" ht="12.750000" customHeight="1"/>
+    <row r="415" ht="12.750000" customHeight="1"/>
+    <row r="416" ht="12.750000" customHeight="1"/>
+    <row r="417" ht="12.750000" customHeight="1"/>
+    <row r="418" ht="12.750000" customHeight="1"/>
+    <row r="419" ht="12.750000" customHeight="1"/>
+    <row r="420" ht="12.750000" customHeight="1"/>
+    <row r="421" ht="12.750000" customHeight="1"/>
+    <row r="422" ht="12.750000" customHeight="1"/>
+    <row r="423" ht="12.750000" customHeight="1"/>
+    <row r="424" ht="12.750000" customHeight="1"/>
+    <row r="425" ht="12.750000" customHeight="1"/>
+    <row r="426" ht="12.750000" customHeight="1"/>
+    <row r="427" ht="12.750000" customHeight="1"/>
+    <row r="428" ht="12.750000" customHeight="1"/>
+    <row r="429" ht="12.750000" customHeight="1"/>
+    <row r="430" ht="12.750000" customHeight="1"/>
+    <row r="431" ht="12.750000" customHeight="1"/>
+    <row r="432" ht="12.750000" customHeight="1"/>
+    <row r="433" ht="12.750000" customHeight="1"/>
+    <row r="434" ht="12.750000" customHeight="1"/>
+    <row r="435" ht="12.750000" customHeight="1"/>
+    <row r="436" ht="12.750000" customHeight="1"/>
+    <row r="437" ht="12.750000" customHeight="1"/>
+    <row r="438" ht="12.750000" customHeight="1"/>
+    <row r="439" ht="12.750000" customHeight="1"/>
+    <row r="440" ht="12.750000" customHeight="1"/>
+    <row r="441" ht="12.750000" customHeight="1"/>
+    <row r="442" ht="12.750000" customHeight="1"/>
+    <row r="443" ht="12.750000" customHeight="1"/>
+    <row r="444" ht="12.750000" customHeight="1"/>
+    <row r="445" ht="12.750000" customHeight="1"/>
+    <row r="446" ht="12.750000" customHeight="1"/>
+    <row r="447" ht="12.750000" customHeight="1"/>
+    <row r="448" ht="12.750000" customHeight="1"/>
+    <row r="449" ht="12.750000" customHeight="1"/>
+    <row r="450" ht="12.750000" customHeight="1"/>
+    <row r="451" ht="12.750000" customHeight="1"/>
+    <row r="452" ht="12.750000" customHeight="1"/>
+    <row r="453" ht="12.750000" customHeight="1"/>
+    <row r="454" ht="12.750000" customHeight="1"/>
+    <row r="455" ht="12.750000" customHeight="1"/>
+    <row r="456" ht="12.750000" customHeight="1"/>
+    <row r="457" ht="12.750000" customHeight="1"/>
+    <row r="458" ht="12.750000" customHeight="1"/>
+    <row r="459" ht="12.750000" customHeight="1"/>
+    <row r="460" ht="12.750000" customHeight="1"/>
+    <row r="461" ht="12.750000" customHeight="1"/>
+    <row r="462" ht="12.750000" customHeight="1"/>
+    <row r="463" ht="12.750000" customHeight="1"/>
+    <row r="464" ht="12.750000" customHeight="1"/>
+    <row r="465" ht="12.750000" customHeight="1"/>
+    <row r="466" ht="12.750000" customHeight="1"/>
+    <row r="467" ht="12.750000" customHeight="1"/>
+    <row r="468" ht="12.750000" customHeight="1"/>
+    <row r="469" ht="12.750000" customHeight="1"/>
+    <row r="470" ht="12.750000" customHeight="1"/>
+    <row r="471" ht="12.750000" customHeight="1"/>
+    <row r="472" ht="12.750000" customHeight="1"/>
+    <row r="473" ht="12.750000" customHeight="1"/>
+    <row r="474" ht="12.750000" customHeight="1"/>
+    <row r="475" ht="12.750000" customHeight="1"/>
+    <row r="476" ht="12.750000" customHeight="1"/>
+    <row r="477" ht="12.750000" customHeight="1"/>
+    <row r="478" ht="12.750000" customHeight="1"/>
+    <row r="479" ht="12.750000" customHeight="1"/>
+    <row r="480" ht="12.750000" customHeight="1"/>
+    <row r="481" ht="12.750000" customHeight="1"/>
+    <row r="482" ht="12.750000" customHeight="1"/>
+    <row r="483" ht="12.750000" customHeight="1"/>
+    <row r="484" ht="12.750000" customHeight="1"/>
+    <row r="485" ht="12.750000" customHeight="1"/>
+    <row r="486" ht="12.750000" customHeight="1"/>
+    <row r="487" ht="12.750000" customHeight="1"/>
+    <row r="488" ht="12.750000" customHeight="1"/>
+    <row r="489" ht="12.750000" customHeight="1"/>
+    <row r="490" ht="12.750000" customHeight="1"/>
+    <row r="491" ht="12.750000" customHeight="1"/>
+    <row r="492" ht="12.750000" customHeight="1"/>
+    <row r="493" ht="12.750000" customHeight="1"/>
+    <row r="494" ht="12.750000" customHeight="1"/>
+    <row r="495" ht="12.750000" customHeight="1"/>
+    <row r="496" ht="12.750000" customHeight="1"/>
+    <row r="497" ht="12.750000" customHeight="1"/>
+    <row r="498" ht="12.750000" customHeight="1"/>
+    <row r="499" ht="12.750000" customHeight="1"/>
+    <row r="500" ht="12.750000" customHeight="1"/>
+    <row r="501" ht="12.750000" customHeight="1"/>
+    <row r="502" ht="12.750000" customHeight="1"/>
+    <row r="503" ht="12.750000" customHeight="1"/>
+    <row r="504" ht="12.750000" customHeight="1"/>
+    <row r="505" ht="12.750000" customHeight="1"/>
+    <row r="506" ht="12.750000" customHeight="1"/>
+    <row r="507" ht="12.750000" customHeight="1"/>
+    <row r="508" ht="12.750000" customHeight="1"/>
+    <row r="509" ht="12.750000" customHeight="1"/>
+    <row r="510" ht="12.750000" customHeight="1"/>
+    <row r="511" ht="12.750000" customHeight="1"/>
+    <row r="512" ht="12.750000" customHeight="1"/>
+    <row r="513" ht="12.750000" customHeight="1"/>
+    <row r="514" ht="12.750000" customHeight="1"/>
+    <row r="515" ht="12.750000" customHeight="1"/>
+    <row r="516" ht="12.750000" customHeight="1"/>
+    <row r="517" ht="12.750000" customHeight="1"/>
+    <row r="518" ht="12.750000" customHeight="1"/>
+    <row r="519" ht="12.750000" customHeight="1"/>
+    <row r="520" ht="12.750000" customHeight="1"/>
+    <row r="521" ht="12.750000" customHeight="1"/>
+    <row r="522" ht="12.750000" customHeight="1"/>
+    <row r="523" ht="12.750000" customHeight="1"/>
+    <row r="524" ht="12.750000" customHeight="1"/>
+    <row r="525" ht="12.750000" customHeight="1"/>
+    <row r="526" ht="12.750000" customHeight="1"/>
+    <row r="527" ht="12.750000" customHeight="1"/>
+    <row r="528" ht="12.750000" customHeight="1"/>
+    <row r="529" ht="12.750000" customHeight="1"/>
+    <row r="530" ht="12.750000" customHeight="1"/>
+    <row r="531" ht="12.750000" customHeight="1"/>
+    <row r="532" ht="12.750000" customHeight="1"/>
+    <row r="533" ht="12.750000" customHeight="1"/>
+    <row r="534" ht="12.750000" customHeight="1"/>
+    <row r="535" ht="12.750000" customHeight="1"/>
+    <row r="536" ht="12.750000" customHeight="1"/>
+    <row r="537" ht="12.750000" customHeight="1"/>
+    <row r="538" ht="12.750000" customHeight="1"/>
+    <row r="539" ht="12.750000" customHeight="1"/>
+    <row r="540" ht="12.750000" customHeight="1"/>
+    <row r="541" ht="12.750000" customHeight="1"/>
+    <row r="542" ht="12.750000" customHeight="1"/>
+    <row r="543" ht="12.750000" customHeight="1"/>
+    <row r="544" ht="12.750000" customHeight="1"/>
+    <row r="545" ht="12.750000" customHeight="1"/>
+    <row r="546" ht="12.750000" customHeight="1"/>
+    <row r="547" ht="12.750000" customHeight="1"/>
+    <row r="548" ht="12.750000" customHeight="1"/>
+    <row r="549" ht="12.750000" customHeight="1"/>
+    <row r="550" ht="12.750000" customHeight="1"/>
+    <row r="551" ht="12.750000" customHeight="1"/>
+    <row r="552" ht="12.750000" customHeight="1"/>
+    <row r="553" ht="12.750000" customHeight="1"/>
+    <row r="554" ht="12.750000" customHeight="1"/>
+    <row r="555" ht="12.750000" customHeight="1"/>
+    <row r="556" ht="12.750000" customHeight="1"/>
+    <row r="557" ht="12.750000" customHeight="1"/>
+    <row r="558" ht="12.750000" customHeight="1"/>
+    <row r="559" ht="12.750000" customHeight="1"/>
+    <row r="560" ht="12.750000" customHeight="1"/>
+    <row r="561" ht="12.750000" customHeight="1"/>
+    <row r="562" ht="12.750000" customHeight="1"/>
+    <row r="563" ht="12.750000" customHeight="1"/>
+    <row r="564" ht="12.750000" customHeight="1"/>
+    <row r="565" ht="12.750000" customHeight="1"/>
+    <row r="566" ht="12.750000" customHeight="1"/>
+    <row r="567" ht="12.750000" customHeight="1"/>
+    <row r="568" ht="12.750000" customHeight="1"/>
+    <row r="569" ht="12.750000" customHeight="1"/>
+    <row r="570" ht="12.750000" customHeight="1"/>
+    <row r="571" ht="12.750000" customHeight="1"/>
+    <row r="572" ht="12.750000" customHeight="1"/>
+    <row r="573" ht="12.750000" customHeight="1"/>
+    <row r="574" ht="12.750000" customHeight="1"/>
+    <row r="575" ht="12.750000" customHeight="1"/>
+    <row r="576" ht="12.750000" customHeight="1"/>
+    <row r="577" ht="12.750000" customHeight="1"/>
+    <row r="578" ht="12.750000" customHeight="1"/>
+    <row r="579" ht="12.750000" customHeight="1"/>
+    <row r="580" ht="12.750000" customHeight="1"/>
+    <row r="581" ht="12.750000" customHeight="1"/>
+    <row r="582" ht="12.750000" customHeight="1"/>
+    <row r="583" ht="12.750000" customHeight="1"/>
+    <row r="584" ht="12.750000" customHeight="1"/>
+    <row r="585" ht="12.750000" customHeight="1"/>
+    <row r="586" ht="12.750000" customHeight="1"/>
+    <row r="587" ht="12.750000" customHeight="1"/>
+    <row r="588" ht="12.750000" customHeight="1"/>
+    <row r="589" ht="12.750000" customHeight="1"/>
+    <row r="590" ht="12.750000" customHeight="1"/>
+    <row r="591" ht="12.750000" customHeight="1"/>
+    <row r="592" ht="12.750000" customHeight="1"/>
+    <row r="593" ht="12.750000" customHeight="1"/>
+    <row r="594" ht="12.750000" customHeight="1"/>
+    <row r="595" ht="12.750000" customHeight="1"/>
+    <row r="596" ht="12.750000" customHeight="1"/>
+    <row r="597" ht="12.750000" customHeight="1"/>
+    <row r="598" ht="12.750000" customHeight="1"/>
+    <row r="599" ht="12.750000" customHeight="1"/>
+    <row r="600" ht="12.750000" customHeight="1"/>
+    <row r="601" ht="12.750000" customHeight="1"/>
+    <row r="602" ht="12.750000" customHeight="1"/>
+    <row r="603" ht="12.750000" customHeight="1"/>
+    <row r="604" ht="12.750000" customHeight="1"/>
+    <row r="605" ht="12.750000" customHeight="1"/>
+    <row r="606" ht="12.750000" customHeight="1"/>
+    <row r="607" ht="12.750000" customHeight="1"/>
+    <row r="608" ht="12.750000" customHeight="1"/>
+    <row r="609" ht="12.750000" customHeight="1"/>
+    <row r="610" ht="12.750000" customHeight="1"/>
+    <row r="611" ht="12.750000" customHeight="1"/>
+    <row r="612" ht="12.750000" customHeight="1"/>
+    <row r="613" ht="12.750000" customHeight="1"/>
+    <row r="614" ht="12.750000" customHeight="1"/>
+    <row r="615" ht="12.750000" customHeight="1"/>
+    <row r="616" ht="12.750000" customHeight="1"/>
+    <row r="617" ht="12.750000" customHeight="1"/>
+    <row r="618" ht="12.750000" customHeight="1"/>
+    <row r="619" ht="12.750000" customHeight="1"/>
+    <row r="620" ht="12.750000" customHeight="1"/>
+    <row r="621" ht="12.750000" customHeight="1"/>
+    <row r="622" ht="12.750000" customHeight="1"/>
+    <row r="623" ht="12.750000" customHeight="1"/>
+    <row r="624" ht="12.750000" customHeight="1"/>
+    <row r="625" ht="12.750000" customHeight="1"/>
+    <row r="626" ht="12.750000" customHeight="1"/>
+    <row r="627" ht="12.750000" customHeight="1"/>
+    <row r="628" ht="12.750000" customHeight="1"/>
+    <row r="629" ht="12.750000" customHeight="1"/>
+    <row r="630" ht="12.750000" customHeight="1"/>
+    <row r="631" ht="12.750000" customHeight="1"/>
+    <row r="632" ht="12.750000" customHeight="1"/>
+    <row r="633" ht="12.750000" customHeight="1"/>
+    <row r="634" ht="12.750000" customHeight="1"/>
+    <row r="635" ht="12.750000" customHeight="1"/>
+    <row r="636" ht="12.750000" customHeight="1"/>
+    <row r="637" ht="12.750000" customHeight="1"/>
+    <row r="638" ht="12.750000" customHeight="1"/>
+    <row r="639" ht="12.750000" customHeight="1"/>
+    <row r="640" ht="12.750000" customHeight="1"/>
+    <row r="641" ht="12.750000" customHeight="1"/>
+    <row r="642" ht="12.750000" customHeight="1"/>
+    <row r="643" ht="12.750000" customHeight="1"/>
+    <row r="644" ht="12.750000" customHeight="1"/>
+    <row r="645" ht="12.750000" customHeight="1"/>
+    <row r="646" ht="12.750000" customHeight="1"/>
+    <row r="647" ht="12.750000" customHeight="1"/>
+    <row r="648" ht="12.750000" customHeight="1"/>
+    <row r="649" ht="12.750000" customHeight="1"/>
+    <row r="650" ht="12.750000" customHeight="1"/>
+    <row r="651" ht="12.750000" customHeight="1"/>
+    <row r="652" ht="12.750000" customHeight="1"/>
+    <row r="653" ht="12.750000" customHeight="1"/>
+    <row r="654" ht="12.750000" customHeight="1"/>
+    <row r="655" ht="12.750000" customHeight="1"/>
+    <row r="656" ht="12.750000" customHeight="1"/>
+    <row r="657" ht="12.750000" customHeight="1"/>
+    <row r="658" ht="12.750000" customHeight="1"/>
+    <row r="659" ht="12.750000" customHeight="1"/>
+    <row r="660" ht="12.750000" customHeight="1"/>
+    <row r="661" ht="12.750000" customHeight="1"/>
+    <row r="662" ht="12.750000" customHeight="1"/>
+    <row r="663" ht="12.750000" customHeight="1"/>
+    <row r="664" ht="12.750000" customHeight="1"/>
+    <row r="665" ht="12.750000" customHeight="1"/>
+    <row r="666" ht="12.750000" customHeight="1"/>
+    <row r="667" ht="12.750000" customHeight="1"/>
+    <row r="668" ht="12.750000" customHeight="1"/>
+    <row r="669" ht="12.750000" customHeight="1"/>
+    <row r="670" ht="12.750000" customHeight="1"/>
+    <row r="671" ht="12.750000" customHeight="1"/>
+    <row r="672" ht="12.750000" customHeight="1"/>
+    <row r="673" ht="12.750000" customHeight="1"/>
+    <row r="674" ht="12.750000" customHeight="1"/>
+    <row r="675" ht="12.750000" customHeight="1"/>
+    <row r="676" ht="12.750000" customHeight="1"/>
+    <row r="677" ht="12.750000" customHeight="1"/>
+    <row r="678" ht="12.750000" customHeight="1"/>
+    <row r="679" ht="12.750000" customHeight="1"/>
+    <row r="680" ht="12.750000" customHeight="1"/>
+    <row r="681" ht="12.750000" customHeight="1"/>
+    <row r="682" ht="12.750000" customHeight="1"/>
+    <row r="683" ht="12.750000" customHeight="1"/>
+    <row r="684" ht="12.750000" customHeight="1"/>
+    <row r="685" ht="12.750000" customHeight="1"/>
+    <row r="686" ht="12.750000" customHeight="1"/>
+    <row r="687" ht="12.750000" customHeight="1"/>
+    <row r="688" ht="12.750000" customHeight="1"/>
+    <row r="689" ht="12.750000" customHeight="1"/>
+    <row r="690" ht="12.750000" customHeight="1"/>
+    <row r="691" ht="12.750000" customHeight="1"/>
+    <row r="692" ht="12.750000" customHeight="1"/>
+    <row r="693" ht="12.750000" customHeight="1"/>
+    <row r="694" ht="12.750000" customHeight="1"/>
+    <row r="695" ht="12.750000" customHeight="1"/>
+    <row r="696" ht="12.750000" customHeight="1"/>
+    <row r="697" ht="12.750000" customHeight="1"/>
+    <row r="698" ht="12.750000" customHeight="1"/>
+    <row r="699" ht="12.750000" customHeight="1"/>
+    <row r="700" ht="12.750000" customHeight="1"/>
+    <row r="701" ht="12.750000" customHeight="1"/>
+    <row r="702" ht="12.750000" customHeight="1"/>
+    <row r="703" ht="12.750000" customHeight="1"/>
+    <row r="704" ht="12.750000" customHeight="1"/>
+    <row r="705" ht="12.750000" customHeight="1"/>
+    <row r="706" ht="12.750000" customHeight="1"/>
+    <row r="707" ht="12.750000" customHeight="1"/>
+    <row r="708" ht="12.750000" customHeight="1"/>
+    <row r="709" ht="12.750000" customHeight="1"/>
+    <row r="710" ht="12.750000" customHeight="1"/>
+    <row r="711" ht="12.750000" customHeight="1"/>
+    <row r="712" ht="12.750000" customHeight="1"/>
+    <row r="713" ht="12.750000" customHeight="1"/>
+    <row r="714" ht="12.750000" customHeight="1"/>
+    <row r="715" ht="12.750000" customHeight="1"/>
+    <row r="716" ht="12.750000" customHeight="1"/>
+    <row r="717" ht="12.750000" customHeight="1"/>
+    <row r="718" ht="12.750000" customHeight="1"/>
+    <row r="719" ht="12.750000" customHeight="1"/>
+    <row r="720" ht="12.750000" customHeight="1"/>
+    <row r="721" ht="12.750000" customHeight="1"/>
+    <row r="722" ht="12.750000" customHeight="1"/>
+    <row r="723" ht="12.750000" customHeight="1"/>
+    <row r="724" ht="12.750000" customHeight="1"/>
+    <row r="725" ht="12.750000" customHeight="1"/>
+    <row r="726" ht="12.750000" customHeight="1"/>
+    <row r="727" ht="12.750000" customHeight="1"/>
+    <row r="728" ht="12.750000" customHeight="1"/>
+    <row r="729" ht="12.750000" customHeight="1"/>
+    <row r="730" ht="12.750000" customHeight="1"/>
+    <row r="731" ht="12.750000" customHeight="1"/>
+    <row r="732" ht="12.750000" customHeight="1"/>
+    <row r="733" ht="12.750000" customHeight="1"/>
+    <row r="734" ht="12.750000" customHeight="1"/>
+    <row r="735" ht="12.750000" customHeight="1"/>
+    <row r="736" ht="12.750000" customHeight="1"/>
+    <row r="737" ht="12.750000" customHeight="1"/>
+    <row r="738" ht="12.750000" customHeight="1"/>
+    <row r="739" ht="12.750000" customHeight="1"/>
+    <row r="740" ht="12.750000" customHeight="1"/>
+    <row r="741" ht="12.750000" customHeight="1"/>
+    <row r="742" ht="12.750000" customHeight="1"/>
+    <row r="743" ht="12.750000" customHeight="1"/>
+    <row r="744" ht="12.750000" customHeight="1"/>
+    <row r="745" ht="12.750000" customHeight="1"/>
+    <row r="746" ht="12.750000" customHeight="1"/>
+    <row r="747" ht="12.750000" customHeight="1"/>
+    <row r="748" ht="12.750000" customHeight="1"/>
+    <row r="749" ht="12.750000" customHeight="1"/>
+    <row r="750" ht="12.750000" customHeight="1"/>
+    <row r="751" ht="12.750000" customHeight="1"/>
+    <row r="752" ht="12.750000" customHeight="1"/>
+    <row r="753" ht="12.750000" customHeight="1"/>
+    <row r="754" ht="12.750000" customHeight="1"/>
+    <row r="755" ht="12.750000" customHeight="1"/>
+    <row r="756" ht="12.750000" customHeight="1"/>
+    <row r="757" ht="12.750000" customHeight="1"/>
+    <row r="758" ht="12.750000" customHeight="1"/>
+    <row r="759" ht="12.750000" customHeight="1"/>
+    <row r="760" ht="12.750000" customHeight="1"/>
+    <row r="761" ht="12.750000" customHeight="1"/>
+    <row r="762" ht="12.750000" customHeight="1"/>
+    <row r="763" ht="12.750000" customHeight="1"/>
+    <row r="764" ht="12.750000" customHeight="1"/>
+    <row r="765" ht="12.750000" customHeight="1"/>
+    <row r="766" ht="12.750000" customHeight="1"/>
+    <row r="767" ht="12.750000" customHeight="1"/>
+    <row r="768" ht="12.750000" customHeight="1"/>
+    <row r="769" ht="12.750000" customHeight="1"/>
+    <row r="770" ht="12.750000" customHeight="1"/>
+    <row r="771" ht="12.750000" customHeight="1"/>
+    <row r="772" ht="12.750000" customHeight="1"/>
+    <row r="773" ht="12.750000" customHeight="1"/>
+    <row r="774" ht="12.750000" customHeight="1"/>
+    <row r="775" ht="12.750000" customHeight="1"/>
+    <row r="776" ht="12.750000" customHeight="1"/>
+    <row r="777" ht="12.750000" customHeight="1"/>
+    <row r="778" ht="12.750000" customHeight="1"/>
+    <row r="779" ht="12.750000" customHeight="1"/>
+    <row r="780" ht="12.750000" customHeight="1"/>
+    <row r="781" ht="12.750000" customHeight="1"/>
+    <row r="782" ht="12.750000" customHeight="1"/>
+    <row r="783" ht="12.750000" customHeight="1"/>
+    <row r="784" ht="12.750000" customHeight="1"/>
+    <row r="785" ht="12.750000" customHeight="1"/>
+    <row r="786" ht="12.750000" customHeight="1"/>
+    <row r="787" ht="12.750000" customHeight="1"/>
+    <row r="788" ht="12.750000" customHeight="1"/>
+    <row r="789" ht="12.750000" customHeight="1"/>
+    <row r="790" ht="12.750000" customHeight="1"/>
+    <row r="791" ht="12.750000" customHeight="1"/>
+    <row r="792" ht="12.750000" customHeight="1"/>
+    <row r="793" ht="12.750000" customHeight="1"/>
+    <row r="794" ht="12.750000" customHeight="1"/>
+    <row r="795" ht="12.750000" customHeight="1"/>
+    <row r="796" ht="12.750000" customHeight="1"/>
+    <row r="797" ht="12.750000" customHeight="1"/>
+    <row r="798" ht="12.750000" customHeight="1"/>
+    <row r="799" ht="12.750000" customHeight="1"/>
+    <row r="800" ht="12.750000" customHeight="1"/>
+    <row r="801" ht="12.750000" customHeight="1"/>
+    <row r="802" ht="12.750000" customHeight="1"/>
+    <row r="803" ht="12.750000" customHeight="1"/>
+    <row r="804" ht="12.750000" customHeight="1"/>
+    <row r="805" ht="12.750000" customHeight="1"/>
+    <row r="806" ht="12.750000" customHeight="1"/>
+    <row r="807" ht="12.750000" customHeight="1"/>
+    <row r="808" ht="12.750000" customHeight="1"/>
+    <row r="809" ht="12.750000" customHeight="1"/>
+    <row r="810" ht="12.750000" customHeight="1"/>
+    <row r="811" ht="12.750000" customHeight="1"/>
+    <row r="812" ht="12.750000" customHeight="1"/>
+    <row r="813" ht="12.750000" customHeight="1"/>
+    <row r="814" ht="12.750000" customHeight="1"/>
+    <row r="815" ht="12.750000" customHeight="1"/>
+    <row r="816" ht="12.750000" customHeight="1"/>
+    <row r="817" ht="12.750000" customHeight="1"/>
+    <row r="818" ht="12.750000" customHeight="1"/>
+    <row r="819" ht="12.750000" customHeight="1"/>
+    <row r="820" ht="12.750000" customHeight="1"/>
+    <row r="821" ht="12.750000" customHeight="1"/>
+    <row r="822" ht="12.750000" customHeight="1"/>
+    <row r="823" ht="12.750000" customHeight="1"/>
+    <row r="824" ht="12.750000" customHeight="1"/>
+    <row r="825" ht="12.750000" customHeight="1"/>
+    <row r="826" ht="12.750000" customHeight="1"/>
+    <row r="827" ht="12.750000" customHeight="1"/>
+    <row r="828" ht="12.750000" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:AC1"/>
-    <mergeCell ref="AD1:BH1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:AA1"/>
+    <mergeCell ref="AB1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.14000000000000001" right="0.13" top="0.42" bottom="0.31" header="0.45" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.14" right="0.13" top="0.42" bottom="0.31" header="0.45" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/team_1_WBS.xlsx
+++ b/team_1_WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>태스크</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">   기능개요</t>
+  </si>
+  <si>
+    <t>19-12-124</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,6 +551,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1046,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1241,6 +1262,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1587,9 +1653,9 @@
   <dimension ref="B1:XFD48"/>
   <sheetViews>
     <sheetView topLeftCell="B1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.750000" customHeight="1"/>
@@ -1648,40 +1714,40 @@
       <c r="W1" s="72"/>
       <c r="X1" s="73"/>
       <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="76" t="s">
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="73"/>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="73"/>
-      <c r="BB1" s="73"/>
-      <c r="BC1" s="73"/>
-      <c r="BD1" s="73"/>
-      <c r="BE1" s="33"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="91"/>
       <c r="BF1" s="34"/>
       <c r="BG1" s="33"/>
       <c r="BH1" s="33"/>
@@ -1733,130 +1799,125 @@
         <v>24</v>
       </c>
       <c r="U2" s="31">
+        <v>26</v>
+      </c>
+      <c r="V2" s="31">
+        <v>27</v>
+      </c>
+      <c r="W2" s="31">
+        <v>28</v>
+      </c>
+      <c r="X2" s="31">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="31">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="66">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="87">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="88">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="88">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="88">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="88">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="88">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="88">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="88">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="88">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="88">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="88">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="88">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="88">
+        <v>14</v>
+      </c>
+      <c r="AO2" s="88">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="88">
+        <v>16</v>
+      </c>
+      <c r="AQ2" s="88">
+        <v>17</v>
+      </c>
+      <c r="AR2" s="88">
+        <v>18</v>
+      </c>
+      <c r="AS2" s="88">
+        <v>19</v>
+      </c>
+      <c r="AT2" s="88">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="88">
+        <v>21</v>
+      </c>
+      <c r="AV2" s="88">
+        <v>22</v>
+      </c>
+      <c r="AW2" s="88">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="88">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="88">
         <v>25</v>
       </c>
-      <c r="V2" s="31">
+      <c r="AZ2" s="88">
         <v>26</v>
       </c>
-      <c r="W2" s="31">
+      <c r="BA2" s="88">
         <v>27</v>
       </c>
-      <c r="X2" s="31">
+      <c r="BB2" s="88">
         <v>28</v>
       </c>
-      <c r="Y2" s="31">
+      <c r="BC2" s="88">
         <v>29</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="BD2" s="88">
         <v>30</v>
       </c>
-      <c r="AA2" s="66">
+      <c r="BE2" s="88">
         <v>31</v>
       </c>
-      <c r="AB2" s="43">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="31">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="31">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="31">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="31">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="31">
-        <v>10</v>
-      </c>
-      <c r="AL2" s="31">
-        <v>11</v>
-      </c>
-      <c r="AM2" s="31">
-        <v>12</v>
-      </c>
-      <c r="AN2" s="31">
-        <v>13</v>
-      </c>
-      <c r="AO2" s="31">
-        <v>14</v>
-      </c>
-      <c r="AP2" s="31">
-        <v>15</v>
-      </c>
-      <c r="AQ2" s="31">
-        <v>16</v>
-      </c>
-      <c r="AR2" s="31">
-        <v>17</v>
-      </c>
-      <c r="AS2" s="31">
-        <v>18</v>
-      </c>
-      <c r="AT2" s="31">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="31">
-        <v>20</v>
-      </c>
-      <c r="AV2" s="31">
-        <v>21</v>
-      </c>
-      <c r="AW2" s="31">
-        <v>22</v>
-      </c>
-      <c r="AX2" s="31">
-        <v>23</v>
-      </c>
-      <c r="AY2" s="31">
-        <v>24</v>
-      </c>
-      <c r="AZ2" s="31">
-        <v>25</v>
-      </c>
-      <c r="BA2" s="31">
-        <v>26</v>
-      </c>
-      <c r="BB2" s="31">
-        <v>27</v>
-      </c>
-      <c r="BC2" s="31">
-        <v>28</v>
-      </c>
-      <c r="BD2" s="31">
-        <v>29</v>
-      </c>
-      <c r="BE2" s="31">
-        <v>30</v>
-      </c>
-      <c r="BF2" s="31">
-        <v>31</v>
-      </c>
-      <c r="BG2" s="4"/>
+      <c r="BH2" s="62"/>
       <c r="BI2" s="62"/>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="64"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="65"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="62"/>
+      <c r="BM2" s="65"/>
+      <c r="BN2" s="62"/>
       <c r="BO2" s="62"/>
       <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
-      <c r="XFC2" s="4"/>
       <c r="XFD2" s="4"/>
     </row>
     <row r="3" spans="2:16384" ht="17.400000" customHeight="1">
@@ -1897,9 +1958,9 @@
       <c r="W3" s="28"/>
       <c r="X3" s="28"/>
       <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="44"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="28"/>
       <c r="AC3" s="28"/>
       <c r="AD3" s="28"/>
       <c r="AE3" s="28"/>
@@ -1923,18 +1984,18 @@
       <c r="AW3" s="28"/>
       <c r="AX3" s="28"/>
       <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
+      <c r="AZ3" s="29"/>
       <c r="BA3" s="29"/>
       <c r="BB3" s="29"/>
       <c r="BC3" s="29"/>
       <c r="BD3" s="29"/>
       <c r="BE3" s="29"/>
-      <c r="BF3" s="29"/>
-      <c r="BJ3" s="53"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="61"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="61"/>
+      <c r="XFB3" s="0"/>
       <c r="XFC3" s="0"/>
-      <c r="XFD3" s="0"/>
+      <c r="XFD3" s="1"/>
     </row>
     <row r="4" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B4" s="2" t="s">
@@ -1976,9 +2037,9 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="44"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="28"/>
       <c r="AC4" s="28"/>
       <c r="AD4" s="28"/>
       <c r="AE4" s="28"/>
@@ -2002,15 +2063,15 @@
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
+      <c r="AZ4" s="29"/>
       <c r="BA4" s="29"/>
       <c r="BB4" s="29"/>
       <c r="BC4" s="29"/>
       <c r="BD4" s="29"/>
       <c r="BE4" s="29"/>
-      <c r="BF4" s="29"/>
+      <c r="XFB4" s="0"/>
       <c r="XFC4" s="0"/>
-      <c r="XFD4" s="0"/>
+      <c r="XFD4" s="1"/>
     </row>
     <row r="5" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B5" s="20" t="s">
@@ -2039,9 +2100,9 @@
       <c r="W5" s="27"/>
       <c r="X5" s="27"/>
       <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="45"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
       <c r="AD5" s="27"/>
       <c r="AE5" s="27"/>
@@ -2065,15 +2126,15 @@
       <c r="AW5" s="27"/>
       <c r="AX5" s="27"/>
       <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
+      <c r="AZ5" s="32"/>
       <c r="BA5" s="32"/>
       <c r="BB5" s="32"/>
       <c r="BC5" s="32"/>
       <c r="BD5" s="32"/>
       <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
+      <c r="XFB5" s="0"/>
       <c r="XFC5" s="0"/>
-      <c r="XFD5" s="0"/>
+      <c r="XFD5" s="1"/>
     </row>
     <row r="6" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B6" s="52" t="s">
@@ -2114,9 +2175,9 @@
       <c r="W6" s="27"/>
       <c r="X6" s="27"/>
       <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="45"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27"/>
@@ -2140,15 +2201,15 @@
       <c r="AW6" s="27"/>
       <c r="AX6" s="27"/>
       <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
+      <c r="AZ6" s="32"/>
       <c r="BA6" s="32"/>
       <c r="BB6" s="32"/>
       <c r="BC6" s="32"/>
       <c r="BD6" s="32"/>
       <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
+      <c r="XFB6" s="0"/>
       <c r="XFC6" s="0"/>
-      <c r="XFD6" s="0"/>
+      <c r="XFD6" s="1"/>
     </row>
     <row r="7" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B7" s="2" t="s">
@@ -2189,9 +2250,9 @@
       <c r="W7" s="27"/>
       <c r="X7" s="27"/>
       <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="45"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27"/>
@@ -2215,15 +2276,15 @@
       <c r="AW7" s="27"/>
       <c r="AX7" s="27"/>
       <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
+      <c r="AZ7" s="32"/>
       <c r="BA7" s="32"/>
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" s="32"/>
       <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
+      <c r="XFB7" s="0"/>
       <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XFD7" s="1"/>
     </row>
     <row r="8" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B8" s="20" t="s">
@@ -2252,9 +2313,9 @@
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
       <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="45"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="27"/>
       <c r="AC8" s="27"/>
       <c r="AD8" s="27"/>
       <c r="AE8" s="27"/>
@@ -2278,15 +2339,15 @@
       <c r="AW8" s="27"/>
       <c r="AX8" s="27"/>
       <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
+      <c r="AZ8" s="32"/>
       <c r="BA8" s="32"/>
       <c r="BB8" s="32"/>
       <c r="BC8" s="32"/>
       <c r="BD8" s="32"/>
       <c r="BE8" s="32"/>
-      <c r="BF8" s="32"/>
+      <c r="XFB8" s="0"/>
       <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B9" s="2" t="s">
@@ -2296,14 +2357,20 @@
         <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6">
         <v>43822</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="6">
+        <v>43825</v>
+      </c>
+      <c r="G9" s="22">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -2315,15 +2382,15 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
       <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="45"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
       <c r="AE9" s="27"/>
@@ -2347,15 +2414,15 @@
       <c r="AW9" s="27"/>
       <c r="AX9" s="27"/>
       <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
+      <c r="AZ9" s="32"/>
       <c r="BA9" s="32"/>
       <c r="BB9" s="32"/>
       <c r="BC9" s="32"/>
       <c r="BD9" s="32"/>
       <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
+      <c r="XFB9" s="0"/>
       <c r="XFC9" s="0"/>
-      <c r="XFD9" s="0"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -2364,8 +2431,12 @@
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43823</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="22"/>
       <c r="H10" s="16"/>
@@ -2380,15 +2451,15 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
       <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="45"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="27"/>
       <c r="AC10" s="27"/>
       <c r="AD10" s="27"/>
       <c r="AE10" s="27"/>
@@ -2412,15 +2483,15 @@
       <c r="AW10" s="27"/>
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
-      <c r="AZ10" s="27"/>
+      <c r="AZ10" s="32"/>
       <c r="BA10" s="32"/>
       <c r="BB10" s="32"/>
       <c r="BC10" s="32"/>
       <c r="BD10" s="32"/>
       <c r="BE10" s="32"/>
-      <c r="BF10" s="32"/>
+      <c r="XFB10" s="0"/>
       <c r="XFC10" s="0"/>
-      <c r="XFD10" s="0"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="11" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B11" s="2" t="s">
@@ -2451,9 +2522,9 @@
       <c r="W11" s="27"/>
       <c r="X11" s="27"/>
       <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="45"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="27"/>
       <c r="AC11" s="27"/>
       <c r="AD11" s="27"/>
       <c r="AE11" s="27"/>
@@ -2477,15 +2548,15 @@
       <c r="AW11" s="27"/>
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
+      <c r="AZ11" s="32"/>
       <c r="BA11" s="32"/>
       <c r="BB11" s="32"/>
       <c r="BC11" s="32"/>
       <c r="BD11" s="32"/>
       <c r="BE11" s="32"/>
-      <c r="BF11" s="32"/>
+      <c r="XFB11" s="0"/>
       <c r="XFC11" s="0"/>
-      <c r="XFD11" s="0"/>
+      <c r="XFD11" s="1"/>
     </row>
     <row r="12" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B12" s="2" t="s">
@@ -2516,9 +2587,9 @@
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="45"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="27"/>
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27"/>
@@ -2542,15 +2613,15 @@
       <c r="AW12" s="27"/>
       <c r="AX12" s="27"/>
       <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
+      <c r="AZ12" s="32"/>
       <c r="BA12" s="32"/>
       <c r="BB12" s="32"/>
       <c r="BC12" s="32"/>
       <c r="BD12" s="32"/>
       <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
+      <c r="XFB12" s="0"/>
       <c r="XFC12" s="0"/>
-      <c r="XFD12" s="0"/>
+      <c r="XFD12" s="1"/>
     </row>
     <row r="13" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B13" s="2" t="s">
@@ -2581,9 +2652,9 @@
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="45"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="27"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27"/>
@@ -2607,15 +2678,15 @@
       <c r="AW13" s="27"/>
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
+      <c r="AZ13" s="32"/>
       <c r="BA13" s="32"/>
       <c r="BB13" s="32"/>
       <c r="BC13" s="32"/>
       <c r="BD13" s="32"/>
       <c r="BE13" s="32"/>
-      <c r="BF13" s="32"/>
+      <c r="XFB13" s="0"/>
       <c r="XFC13" s="0"/>
-      <c r="XFD13" s="0"/>
+      <c r="XFD13" s="1"/>
     </row>
     <row r="14" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B14" s="2" t="s">
@@ -2646,9 +2717,9 @@
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="45"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27"/>
@@ -2672,15 +2743,15 @@
       <c r="AW14" s="27"/>
       <c r="AX14" s="27"/>
       <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
+      <c r="AZ14" s="32"/>
       <c r="BA14" s="32"/>
       <c r="BB14" s="32"/>
       <c r="BC14" s="32"/>
       <c r="BD14" s="32"/>
       <c r="BE14" s="32"/>
-      <c r="BF14" s="32"/>
+      <c r="XFB14" s="0"/>
       <c r="XFC14" s="0"/>
-      <c r="XFD14" s="0"/>
+      <c r="XFD14" s="1"/>
     </row>
     <row r="15" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B15" s="2" t="s">
@@ -2711,9 +2782,9 @@
       <c r="W15" s="27"/>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="45"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="27"/>
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
@@ -2737,15 +2808,15 @@
       <c r="AW15" s="27"/>
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
+      <c r="AZ15" s="32"/>
       <c r="BA15" s="32"/>
       <c r="BB15" s="32"/>
       <c r="BC15" s="32"/>
       <c r="BD15" s="32"/>
       <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
+      <c r="XFB15" s="0"/>
       <c r="XFC15" s="0"/>
-      <c r="XFD15" s="0"/>
+      <c r="XFD15" s="1"/>
     </row>
     <row r="16" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B16" s="2" t="s">
@@ -2776,9 +2847,9 @@
       <c r="W16" s="27"/>
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="45"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="27"/>
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27"/>
@@ -2802,15 +2873,15 @@
       <c r="AW16" s="27"/>
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
+      <c r="AZ16" s="32"/>
       <c r="BA16" s="32"/>
       <c r="BB16" s="32"/>
       <c r="BC16" s="32"/>
       <c r="BD16" s="32"/>
       <c r="BE16" s="32"/>
-      <c r="BF16" s="32"/>
+      <c r="XFB16" s="0"/>
       <c r="XFC16" s="0"/>
-      <c r="XFD16" s="0"/>
+      <c r="XFD16" s="1"/>
     </row>
     <row r="17" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B17" s="2" t="s">
@@ -2841,9 +2912,9 @@
       <c r="W17" s="27"/>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="45"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="27"/>
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
       <c r="AE17" s="27"/>
@@ -2867,15 +2938,15 @@
       <c r="AW17" s="27"/>
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
+      <c r="AZ17" s="32"/>
       <c r="BA17" s="32"/>
       <c r="BB17" s="32"/>
       <c r="BC17" s="32"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="32"/>
-      <c r="BF17" s="32"/>
+      <c r="XFB17" s="0"/>
       <c r="XFC17" s="0"/>
-      <c r="XFD17" s="0"/>
+      <c r="XFD17" s="1"/>
     </row>
     <row r="18" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B18" s="2" t="s">
@@ -2906,9 +2977,9 @@
       <c r="W18" s="27"/>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="45"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="27"/>
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
@@ -2932,15 +3003,15 @@
       <c r="AW18" s="27"/>
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
+      <c r="AZ18" s="32"/>
       <c r="BA18" s="32"/>
       <c r="BB18" s="32"/>
       <c r="BC18" s="32"/>
       <c r="BD18" s="32"/>
       <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
+      <c r="XFB18" s="0"/>
       <c r="XFC18" s="0"/>
-      <c r="XFD18" s="0"/>
+      <c r="XFD18" s="1"/>
     </row>
     <row r="19" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B19" s="2" t="s">
@@ -2971,9 +3042,9 @@
       <c r="W19" s="27"/>
       <c r="X19" s="27"/>
       <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="45"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="27"/>
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
@@ -2997,15 +3068,15 @@
       <c r="AW19" s="27"/>
       <c r="AX19" s="27"/>
       <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
+      <c r="AZ19" s="32"/>
       <c r="BA19" s="32"/>
       <c r="BB19" s="32"/>
       <c r="BC19" s="32"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
-      <c r="BF19" s="32"/>
+      <c r="XFB19" s="0"/>
       <c r="XFC19" s="0"/>
-      <c r="XFD19" s="0"/>
+      <c r="XFD19" s="1"/>
     </row>
     <row r="20" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B20" s="2" t="s">
@@ -3046,9 +3117,9 @@
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="45"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="27"/>
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
       <c r="AE20" s="27"/>
@@ -3072,15 +3143,15 @@
       <c r="AW20" s="27"/>
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
+      <c r="AZ20" s="32"/>
       <c r="BA20" s="32"/>
       <c r="BB20" s="32"/>
       <c r="BC20" s="32"/>
       <c r="BD20" s="32"/>
       <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
+      <c r="XFB20" s="0"/>
       <c r="XFC20" s="0"/>
-      <c r="XFD20" s="0"/>
+      <c r="XFD20" s="1"/>
     </row>
     <row r="21" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B21" s="19" t="s">
@@ -3109,9 +3180,9 @@
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="45"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
@@ -3135,15 +3206,15 @@
       <c r="AW21" s="27"/>
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
+      <c r="AZ21" s="32"/>
       <c r="BA21" s="32"/>
       <c r="BB21" s="32"/>
       <c r="BC21" s="32"/>
       <c r="BD21" s="32"/>
       <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
+      <c r="XFB21" s="0"/>
       <c r="XFC21" s="0"/>
-      <c r="XFD21" s="0"/>
+      <c r="XFD21" s="1"/>
     </row>
     <row r="22" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B22" s="46"/>
@@ -3170,9 +3241,9 @@
       <c r="W22" s="27"/>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="45"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
       <c r="AE22" s="27"/>
@@ -3196,15 +3267,15 @@
       <c r="AW22" s="27"/>
       <c r="AX22" s="27"/>
       <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
+      <c r="AZ22" s="32"/>
       <c r="BA22" s="32"/>
       <c r="BB22" s="32"/>
       <c r="BC22" s="32"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="32"/>
-      <c r="BF22" s="32"/>
+      <c r="XFB22" s="0"/>
       <c r="XFC22" s="0"/>
-      <c r="XFD22" s="0"/>
+      <c r="XFD22" s="1"/>
     </row>
     <row r="23" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B23" s="46"/>
@@ -3231,9 +3302,9 @@
       <c r="W23" s="27"/>
       <c r="X23" s="27"/>
       <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="45"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
@@ -3257,15 +3328,15 @@
       <c r="AW23" s="27"/>
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
+      <c r="AZ23" s="32"/>
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
+      <c r="XFB23" s="0"/>
       <c r="XFC23" s="0"/>
-      <c r="XFD23" s="0"/>
+      <c r="XFD23" s="1"/>
     </row>
     <row r="24" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B24" s="46"/>
@@ -3292,9 +3363,9 @@
       <c r="W24" s="27"/>
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="45"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="27"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
       <c r="AE24" s="27"/>
@@ -3318,15 +3389,15 @@
       <c r="AW24" s="27"/>
       <c r="AX24" s="27"/>
       <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
+      <c r="AZ24" s="32"/>
       <c r="BA24" s="32"/>
       <c r="BB24" s="32"/>
       <c r="BC24" s="32"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="32"/>
-      <c r="BF24" s="32"/>
+      <c r="XFB24" s="0"/>
       <c r="XFC24" s="0"/>
-      <c r="XFD24" s="0"/>
+      <c r="XFD24" s="1"/>
     </row>
     <row r="25" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B25" s="46"/>
@@ -3353,9 +3424,9 @@
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="45"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
@@ -3379,18 +3450,18 @@
       <c r="AW25" s="27"/>
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
+      <c r="AZ25" s="32"/>
       <c r="BA25" s="32"/>
       <c r="BB25" s="32"/>
       <c r="BC25" s="32"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="32"/>
-      <c r="BF25" s="32"/>
+      <c r="BH25" s="59"/>
       <c r="BI25" s="59"/>
       <c r="BJ25" s="59"/>
-      <c r="BK25" s="59"/>
+      <c r="XFB25" s="0"/>
       <c r="XFC25" s="0"/>
-      <c r="XFD25" s="0"/>
+      <c r="XFD25" s="1"/>
     </row>
     <row r="26" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B26" s="46"/>
@@ -3417,9 +3488,9 @@
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="45"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="27"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
@@ -3443,15 +3514,15 @@
       <c r="AW26" s="27"/>
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
-      <c r="AZ26" s="27"/>
+      <c r="AZ26" s="32"/>
       <c r="BA26" s="32"/>
       <c r="BB26" s="32"/>
       <c r="BC26" s="32"/>
       <c r="BD26" s="32"/>
       <c r="BE26" s="32"/>
-      <c r="BF26" s="32"/>
+      <c r="XFB26" s="0"/>
       <c r="XFC26" s="0"/>
-      <c r="XFD26" s="0"/>
+      <c r="XFD26" s="1"/>
     </row>
     <row r="27" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B27" s="46"/>
@@ -3478,9 +3549,9 @@
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
       <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="45"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
@@ -3504,15 +3575,15 @@
       <c r="AW27" s="27"/>
       <c r="AX27" s="27"/>
       <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
+      <c r="AZ27" s="32"/>
       <c r="BA27" s="32"/>
       <c r="BB27" s="32"/>
       <c r="BC27" s="32"/>
       <c r="BD27" s="32"/>
       <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
+      <c r="XFB27" s="0"/>
       <c r="XFC27" s="0"/>
-      <c r="XFD27" s="0"/>
+      <c r="XFD27" s="1"/>
     </row>
     <row r="28" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B28" s="46"/>
@@ -3539,9 +3610,9 @@
       <c r="W28" s="27"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="45"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
       <c r="AE28" s="27"/>
@@ -3565,15 +3636,15 @@
       <c r="AW28" s="27"/>
       <c r="AX28" s="27"/>
       <c r="AY28" s="27"/>
-      <c r="AZ28" s="27"/>
+      <c r="AZ28" s="32"/>
       <c r="BA28" s="32"/>
       <c r="BB28" s="32"/>
       <c r="BC28" s="32"/>
       <c r="BD28" s="32"/>
       <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
+      <c r="XFB28" s="0"/>
       <c r="XFC28" s="0"/>
-      <c r="XFD28" s="0"/>
+      <c r="XFD28" s="1"/>
     </row>
     <row r="29" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B29" s="46"/>
@@ -3600,9 +3671,9 @@
       <c r="W29" s="27"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="45"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="27"/>
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
       <c r="AE29" s="27"/>
@@ -3626,15 +3697,15 @@
       <c r="AW29" s="27"/>
       <c r="AX29" s="27"/>
       <c r="AY29" s="27"/>
-      <c r="AZ29" s="27"/>
+      <c r="AZ29" s="32"/>
       <c r="BA29" s="32"/>
       <c r="BB29" s="32"/>
       <c r="BC29" s="32"/>
       <c r="BD29" s="32"/>
       <c r="BE29" s="32"/>
-      <c r="BF29" s="32"/>
+      <c r="XFB29" s="0"/>
       <c r="XFC29" s="0"/>
-      <c r="XFD29" s="0"/>
+      <c r="XFD29" s="1"/>
     </row>
     <row r="30" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B30" s="46"/>
@@ -3661,9 +3732,9 @@
       <c r="W30" s="27"/>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="45"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="27"/>
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
       <c r="AE30" s="27"/>
@@ -3687,15 +3758,15 @@
       <c r="AW30" s="27"/>
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
-      <c r="AZ30" s="27"/>
+      <c r="AZ30" s="32"/>
       <c r="BA30" s="32"/>
       <c r="BB30" s="32"/>
       <c r="BC30" s="32"/>
       <c r="BD30" s="32"/>
       <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
+      <c r="XFB30" s="0"/>
       <c r="XFC30" s="0"/>
-      <c r="XFD30" s="0"/>
+      <c r="XFD30" s="1"/>
     </row>
     <row r="31" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B31" s="46"/>
@@ -3722,9 +3793,9 @@
       <c r="W31" s="27"/>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="45"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
@@ -3748,15 +3819,15 @@
       <c r="AW31" s="27"/>
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
-      <c r="AZ31" s="27"/>
+      <c r="AZ31" s="32"/>
       <c r="BA31" s="32"/>
       <c r="BB31" s="32"/>
       <c r="BC31" s="32"/>
       <c r="BD31" s="32"/>
       <c r="BE31" s="32"/>
-      <c r="BF31" s="32"/>
+      <c r="XFB31" s="0"/>
       <c r="XFC31" s="0"/>
-      <c r="XFD31" s="0"/>
+      <c r="XFD31" s="1"/>
     </row>
     <row r="32" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B32" s="46"/>
@@ -3783,9 +3854,9 @@
       <c r="W32" s="27"/>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="45"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="27"/>
       <c r="AC32" s="27"/>
       <c r="AD32" s="27"/>
       <c r="AE32" s="27"/>
@@ -3809,15 +3880,15 @@
       <c r="AW32" s="27"/>
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
-      <c r="AZ32" s="27"/>
+      <c r="AZ32" s="32"/>
       <c r="BA32" s="32"/>
       <c r="BB32" s="32"/>
       <c r="BC32" s="32"/>
       <c r="BD32" s="32"/>
       <c r="BE32" s="32"/>
-      <c r="BF32" s="32"/>
+      <c r="XFB32" s="0"/>
       <c r="XFC32" s="0"/>
-      <c r="XFD32" s="0"/>
+      <c r="XFD32" s="1"/>
     </row>
     <row r="33" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B33" s="46"/>
@@ -3844,9 +3915,9 @@
       <c r="W33" s="27"/>
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="45"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="27"/>
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
       <c r="AE33" s="27"/>
@@ -3870,15 +3941,15 @@
       <c r="AW33" s="27"/>
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
-      <c r="AZ33" s="27"/>
+      <c r="AZ33" s="32"/>
       <c r="BA33" s="32"/>
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
       <c r="BD33" s="32"/>
       <c r="BE33" s="32"/>
-      <c r="BF33" s="32"/>
+      <c r="XFB33" s="0"/>
       <c r="XFC33" s="0"/>
-      <c r="XFD33" s="0"/>
+      <c r="XFD33" s="1"/>
     </row>
     <row r="34" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B34" s="46"/>
@@ -3905,9 +3976,9 @@
       <c r="W34" s="27"/>
       <c r="X34" s="27"/>
       <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="45"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="27"/>
       <c r="AC34" s="27"/>
       <c r="AD34" s="27"/>
       <c r="AE34" s="27"/>
@@ -3931,15 +4002,15 @@
       <c r="AW34" s="27"/>
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
-      <c r="AZ34" s="27"/>
+      <c r="AZ34" s="32"/>
       <c r="BA34" s="32"/>
       <c r="BB34" s="32"/>
       <c r="BC34" s="32"/>
       <c r="BD34" s="32"/>
       <c r="BE34" s="32"/>
-      <c r="BF34" s="32"/>
+      <c r="XFB34" s="0"/>
       <c r="XFC34" s="0"/>
-      <c r="XFD34" s="0"/>
+      <c r="XFD34" s="1"/>
     </row>
     <row r="35" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B35" s="46"/>
@@ -3966,9 +4037,9 @@
       <c r="W35" s="27"/>
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="45"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="27"/>
       <c r="AC35" s="27"/>
       <c r="AD35" s="27"/>
       <c r="AE35" s="27"/>
@@ -3992,15 +4063,15 @@
       <c r="AW35" s="27"/>
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
-      <c r="AZ35" s="27"/>
+      <c r="AZ35" s="32"/>
       <c r="BA35" s="32"/>
       <c r="BB35" s="32"/>
       <c r="BC35" s="32"/>
       <c r="BD35" s="32"/>
       <c r="BE35" s="32"/>
-      <c r="BF35" s="32"/>
+      <c r="XFB35" s="0"/>
       <c r="XFC35" s="0"/>
-      <c r="XFD35" s="0"/>
+      <c r="XFD35" s="1"/>
     </row>
     <row r="36" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B36" s="46"/>
@@ -4027,9 +4098,9 @@
       <c r="W36" s="27"/>
       <c r="X36" s="27"/>
       <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="45"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="27"/>
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
       <c r="AE36" s="27"/>
@@ -4053,15 +4124,15 @@
       <c r="AW36" s="27"/>
       <c r="AX36" s="27"/>
       <c r="AY36" s="27"/>
-      <c r="AZ36" s="27"/>
+      <c r="AZ36" s="32"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
       <c r="BD36" s="32"/>
       <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
+      <c r="XFB36" s="0"/>
       <c r="XFC36" s="0"/>
-      <c r="XFD36" s="0"/>
+      <c r="XFD36" s="1"/>
     </row>
     <row r="37" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B37" s="46"/>
@@ -4088,9 +4159,9 @@
       <c r="W37" s="27"/>
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="45"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="27"/>
       <c r="AC37" s="27"/>
       <c r="AD37" s="27"/>
       <c r="AE37" s="27"/>
@@ -4114,15 +4185,15 @@
       <c r="AW37" s="27"/>
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
-      <c r="AZ37" s="27"/>
+      <c r="AZ37" s="32"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
       <c r="BD37" s="32"/>
       <c r="BE37" s="32"/>
-      <c r="BF37" s="32"/>
+      <c r="XFB37" s="0"/>
       <c r="XFC37" s="0"/>
-      <c r="XFD37" s="0"/>
+      <c r="XFD37" s="1"/>
     </row>
     <row r="38" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B38" s="46"/>
@@ -4149,9 +4220,9 @@
       <c r="W38" s="27"/>
       <c r="X38" s="27"/>
       <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="45"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="27"/>
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
       <c r="AE38" s="27"/>
@@ -4175,15 +4246,15 @@
       <c r="AW38" s="27"/>
       <c r="AX38" s="27"/>
       <c r="AY38" s="27"/>
-      <c r="AZ38" s="27"/>
+      <c r="AZ38" s="32"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
       <c r="BD38" s="32"/>
       <c r="BE38" s="32"/>
-      <c r="BF38" s="32"/>
+      <c r="XFB38" s="0"/>
       <c r="XFC38" s="0"/>
-      <c r="XFD38" s="0"/>
+      <c r="XFD38" s="1"/>
     </row>
     <row r="39" spans="2:16384" ht="1.050000" customHeight="1">
       <c r="B39" s="46"/>
@@ -4210,9 +4281,9 @@
       <c r="W39" s="27"/>
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="45"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="27"/>
       <c r="AC39" s="27"/>
       <c r="AD39" s="27"/>
       <c r="AE39" s="27"/>
@@ -4236,15 +4307,15 @@
       <c r="AW39" s="27"/>
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
-      <c r="AZ39" s="27"/>
+      <c r="AZ39" s="32"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
       <c r="BD39" s="32"/>
       <c r="BE39" s="32"/>
-      <c r="BF39" s="32"/>
+      <c r="XFB39" s="0"/>
       <c r="XFC39" s="0"/>
-      <c r="XFD39" s="0"/>
+      <c r="XFD39" s="1"/>
     </row>
     <row r="40" spans="2:16384" ht="17.400000" hidden="1" customHeight="1">
       <c r="B40" s="46"/>
@@ -4271,9 +4342,9 @@
       <c r="W40" s="27"/>
       <c r="X40" s="27"/>
       <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="45"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="27"/>
       <c r="AC40" s="27"/>
       <c r="AD40" s="27"/>
       <c r="AE40" s="27"/>
@@ -4297,15 +4368,15 @@
       <c r="AW40" s="27"/>
       <c r="AX40" s="27"/>
       <c r="AY40" s="27"/>
-      <c r="AZ40" s="27"/>
+      <c r="AZ40" s="32"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
       <c r="BD40" s="32"/>
       <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
+      <c r="XFB40" s="0"/>
       <c r="XFC40" s="0"/>
-      <c r="XFD40" s="0"/>
+      <c r="XFD40" s="1"/>
     </row>
     <row r="41" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B41" s="36"/>
@@ -4332,9 +4403,9 @@
       <c r="W41" s="27"/>
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="45"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="27"/>
       <c r="AC41" s="27"/>
       <c r="AD41" s="27"/>
       <c r="AE41" s="27"/>
@@ -4358,15 +4429,15 @@
       <c r="AW41" s="27"/>
       <c r="AX41" s="27"/>
       <c r="AY41" s="27"/>
-      <c r="AZ41" s="27"/>
+      <c r="AZ41" s="32"/>
       <c r="BA41" s="32"/>
       <c r="BB41" s="32"/>
       <c r="BC41" s="32"/>
       <c r="BD41" s="32"/>
       <c r="BE41" s="32"/>
-      <c r="BF41" s="32"/>
+      <c r="XFB41" s="0"/>
       <c r="XFC41" s="0"/>
-      <c r="XFD41" s="0"/>
+      <c r="XFD41" s="1"/>
     </row>
     <row r="42" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B42" s="36"/>
@@ -4393,9 +4464,9 @@
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
       <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="45"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="27"/>
       <c r="AC42" s="27"/>
       <c r="AD42" s="27"/>
       <c r="AE42" s="27"/>
@@ -4419,15 +4490,15 @@
       <c r="AW42" s="27"/>
       <c r="AX42" s="27"/>
       <c r="AY42" s="27"/>
-      <c r="AZ42" s="27"/>
+      <c r="AZ42" s="32"/>
       <c r="BA42" s="32"/>
       <c r="BB42" s="32"/>
       <c r="BC42" s="32"/>
       <c r="BD42" s="32"/>
       <c r="BE42" s="32"/>
-      <c r="BF42" s="32"/>
+      <c r="XFB42" s="0"/>
       <c r="XFC42" s="0"/>
-      <c r="XFD42" s="0"/>
+      <c r="XFD42" s="1"/>
     </row>
     <row r="43" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B43" s="19" t="s">
@@ -4456,9 +4527,9 @@
       <c r="W43" s="27"/>
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="45"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="27"/>
       <c r="AC43" s="27"/>
       <c r="AD43" s="27"/>
       <c r="AE43" s="27"/>
@@ -4482,15 +4553,15 @@
       <c r="AW43" s="27"/>
       <c r="AX43" s="27"/>
       <c r="AY43" s="27"/>
-      <c r="AZ43" s="27"/>
+      <c r="AZ43" s="32"/>
       <c r="BA43" s="32"/>
       <c r="BB43" s="32"/>
       <c r="BC43" s="32"/>
       <c r="BD43" s="32"/>
       <c r="BE43" s="32"/>
-      <c r="BF43" s="32"/>
+      <c r="XFB43" s="0"/>
       <c r="XFC43" s="0"/>
-      <c r="XFD43" s="0"/>
+      <c r="XFD43" s="1"/>
     </row>
     <row r="44" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B44" s="2" t="s">
@@ -4521,9 +4592,9 @@
       <c r="W44" s="27"/>
       <c r="X44" s="27"/>
       <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="45"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="45"/>
+      <c r="AB44" s="27"/>
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
       <c r="AE44" s="27"/>
@@ -4553,9 +4624,9 @@
       <c r="BC44" s="27"/>
       <c r="BD44" s="27"/>
       <c r="BE44" s="27"/>
-      <c r="BF44" s="27"/>
+      <c r="XFB44" s="0"/>
       <c r="XFC44" s="0"/>
-      <c r="XFD44" s="0"/>
+      <c r="XFD44" s="1"/>
     </row>
     <row r="45" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="B45" s="2" t="s">
@@ -4586,9 +4657,9 @@
       <c r="W45" s="27"/>
       <c r="X45" s="27"/>
       <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="45"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="27"/>
       <c r="AC45" s="27"/>
       <c r="AD45" s="27"/>
       <c r="AE45" s="27"/>
@@ -4612,15 +4683,15 @@
       <c r="AW45" s="27"/>
       <c r="AX45" s="27"/>
       <c r="AY45" s="27"/>
-      <c r="AZ45" s="27"/>
+      <c r="AZ45" s="32"/>
       <c r="BA45" s="32"/>
       <c r="BB45" s="32"/>
       <c r="BC45" s="32"/>
       <c r="BD45" s="32"/>
       <c r="BE45" s="32"/>
-      <c r="BF45" s="32"/>
+      <c r="XFB45" s="0"/>
       <c r="XFC45" s="0"/>
-      <c r="XFD45" s="0"/>
+      <c r="XFD45" s="1"/>
     </row>
     <row r="46" spans="2:16384" ht="17.400000" customHeight="1">
       <c r="I46" s="56"/>
@@ -5425,8 +5496,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:AA1"/>
-    <mergeCell ref="AB1:BF1"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="AA1:BE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.14" right="0.13" top="0.42" bottom="0.31" header="0.45" footer="0.30"/>
